--- a/data/worldometer global/20-09-24 Global wom raw data.xlsx
+++ b/data/worldometer global/20-09-24 Global wom raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{44EDEB7D-CA09-4550-98B0-8202436A4407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD6FDFE6-E308-490D-ACC1-A30395B39642}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{44EDEB7D-CA09-4550-98B0-8202436A4407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{801FEF20-BD1C-462D-B023-C81964D7B74B}"/>
   <bookViews>
-    <workbookView xWindow="730" yWindow="980" windowWidth="16430" windowHeight="12940" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="6240" yWindow="-21390" windowWidth="24990" windowHeight="18420" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -21299,428 +21299,428 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{21EE4966-DF95-4DF6-9C9D-ADEB03D455D8}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{323A4DEF-049D-4C92-B337-1B95AB744314}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{712E9052-7617-42DD-8FF3-45C1A8A85A37}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{7FFCF3D1-BE25-48C8-9BE8-599704B1B3E8}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{6217FA56-1EC8-44C4-B768-34C4A111B9FF}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{758E0A8D-B0C5-43BB-A885-07BD20BCD59B}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{1D721105-DF2B-46B7-B7FB-62A31839F71C}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{C23BF050-B15E-48C4-9668-864A555AC08F}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{57B1C2EA-4F23-441C-82A2-C2450C2360BE}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{7405C865-77A5-4AC3-80F1-6BFE51719A1E}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{B731C924-5243-4433-B854-B745BF2499B8}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{0E8150BB-EE55-4573-B4F9-4E2E363D1E7E}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{9F57B69F-047C-4425-8DFB-F45909431E7D}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{22B1E06C-3D23-4894-82A3-7EBCA9C477E7}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{674CC687-021B-4E9D-B7B0-3959BDBA8D71}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{7CFD8EDB-CEC1-455F-A951-BD69B5692186}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{E8AF1F14-9351-4113-80D9-F5D37A78498D}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{7C72B466-4713-4F29-9F04-DB38E93B33AE}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{77E6EEC8-21D6-4D17-98DB-EA63EA20B04B}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{F1122F52-A643-4CD3-8A03-CB190DA1ED93}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{04E3CBDE-B5A7-4B5B-80F9-4059A958DF5A}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{4A467B6A-3146-46F7-BA69-E6F2862AAB4E}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{9708A351-5344-477B-8C77-991B6903EB30}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{75789DC9-20AD-45C2-878E-46E95A2212AD}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{F6C88C88-2C28-49D6-9D90-20D378F5CAAB}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{F19FDE50-F545-45E9-A6D9-EF059AAEB9C5}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{C01A48E4-3EDC-44FF-99F9-74CFC8D16B1E}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{820960A4-1034-4342-B115-D766F01690D2}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{3A13E666-9519-48FE-A251-A3F0E2482728}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{3200D008-E283-49F9-83A3-2043C5985384}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{8B59CD4F-A697-429A-82F8-BF7F6B2D3621}"/>
-    <hyperlink ref="N18" r:id="rId32" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{7F9CFE5E-827C-4816-BF3F-6C957E6F205C}"/>
-    <hyperlink ref="B19" r:id="rId33" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{5E9EDCA4-5E75-4735-A72C-802F24C67D37}"/>
-    <hyperlink ref="N19" r:id="rId34" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{AF1369AB-E431-4D0B-8A81-86D21C5472B6}"/>
-    <hyperlink ref="B20" r:id="rId35" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{CA085A47-C875-43F7-8C28-FB436FC37DBB}"/>
-    <hyperlink ref="N20" r:id="rId36" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{F4802F61-E5B6-4452-BB35-98C595CAADFA}"/>
-    <hyperlink ref="B21" r:id="rId37" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{AB7154DA-191F-4634-A721-E1F7C746F7EB}"/>
-    <hyperlink ref="N21" r:id="rId38" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{5A76DE76-07EC-4222-9579-75310CF5DE00}"/>
-    <hyperlink ref="B22" r:id="rId39" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{EFD97A40-D800-421C-AEDE-68F3543C7E06}"/>
-    <hyperlink ref="N22" r:id="rId40" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{8083B894-8877-415C-983D-58ADFD2D371C}"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{8264FEEA-EDC2-4F3A-8FBD-F61CDC84BA57}"/>
-    <hyperlink ref="N23" r:id="rId42" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{90950F3D-B88A-442D-BF1F-9302DFD304FC}"/>
-    <hyperlink ref="B24" r:id="rId43" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{F130F81A-64D1-433F-B85C-2E9401ABB02E}"/>
-    <hyperlink ref="N24" r:id="rId44" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{AE0AEC61-2317-4AA2-8BC1-6C733A9DC7A4}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{99A1130A-EEB3-4A8C-A0DF-2213BE7EC73B}"/>
-    <hyperlink ref="N25" r:id="rId46" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{B0E4FE25-EEC5-4900-98C7-079A2C5EE1B9}"/>
-    <hyperlink ref="B26" r:id="rId47" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{90E4C9C2-A116-4CF6-80CA-B90735B8FB94}"/>
-    <hyperlink ref="B27" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{A383144A-6E04-4369-AF44-B966C89A9303}"/>
-    <hyperlink ref="N27" r:id="rId49" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{6E6BFFFD-9712-4C06-8E4D-F6F852438DC4}"/>
-    <hyperlink ref="B28" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{E3578D48-68FC-4487-80BC-7C45B54A9E86}"/>
-    <hyperlink ref="N28" r:id="rId51" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{8F027B45-1D03-48B2-9F5F-877BBF7C3660}"/>
-    <hyperlink ref="B29" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{3105B0BE-D58C-4761-B8FE-02F98BD8AABC}"/>
-    <hyperlink ref="N29" r:id="rId53" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{C6D119AE-C180-4982-A7A0-8E99C15EC688}"/>
-    <hyperlink ref="B30" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{AF4E0E44-17D4-425E-B6AF-2346388748E6}"/>
-    <hyperlink ref="N30" r:id="rId55" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{74485170-626B-4CF5-A8FB-8B523B04EF30}"/>
-    <hyperlink ref="B31" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{6E75E4B1-7942-4119-A6AE-82A64D779229}"/>
-    <hyperlink ref="B32" r:id="rId57" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{CC89A8CA-9BA0-4921-8E9B-D879470A8786}"/>
-    <hyperlink ref="N32" r:id="rId58" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{AAAC7CFA-015D-44E7-BB48-7DEB1BFB0D01}"/>
-    <hyperlink ref="B33" r:id="rId59" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{803EDFDB-311D-4255-95AA-3564712EFB9B}"/>
-    <hyperlink ref="N33" r:id="rId60" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{9D07AB15-04B0-416B-B3F4-905A8B98D298}"/>
-    <hyperlink ref="B34" r:id="rId61" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{C8F6ACEA-D8B1-4BFE-91C5-5F4AC8EF0028}"/>
-    <hyperlink ref="N34" r:id="rId62" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{806CEC1E-0298-452C-929E-988E6C8B0D89}"/>
-    <hyperlink ref="B35" r:id="rId63" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{F085F3C0-4A07-4FE2-B543-395AB302122B}"/>
-    <hyperlink ref="N35" r:id="rId64" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{F2646B52-7FA4-4FB6-BC4E-C2F70B271FA0}"/>
-    <hyperlink ref="B36" r:id="rId65" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{38E0DC62-7155-4FA4-BA32-1DF071F783B1}"/>
-    <hyperlink ref="N36" r:id="rId66" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{59C94B6A-45ED-448D-8148-C714A610DA84}"/>
-    <hyperlink ref="B37" r:id="rId67" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{5B0EA857-2CEA-4563-BE62-6FB79BA52D8E}"/>
-    <hyperlink ref="N37" r:id="rId68" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{F0207172-D51D-4983-8E3C-0322440E7E8B}"/>
-    <hyperlink ref="B38" r:id="rId69" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{48427CB7-673B-4794-8ABC-E7FB55BA13B1}"/>
-    <hyperlink ref="N38" r:id="rId70" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{D9BE9465-3563-40AA-B3B2-0FDCA8B43ED5}"/>
-    <hyperlink ref="B39" r:id="rId71" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{19362859-26BE-49F5-8D1B-181CF8769A12}"/>
-    <hyperlink ref="N39" r:id="rId72" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{F5435D68-BCC4-4926-8FCB-A068E9B1886D}"/>
-    <hyperlink ref="B40" r:id="rId73" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{884606F9-1A1E-4267-8FD4-33080E6589D6}"/>
-    <hyperlink ref="N40" r:id="rId74" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{E06B64E5-5627-4D50-A3C5-88BE63717630}"/>
-    <hyperlink ref="B41" r:id="rId75" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{1771058B-4B52-4515-AE76-7FA73613A0D2}"/>
-    <hyperlink ref="N41" r:id="rId76" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{FDB1C8AE-4D6A-431F-9E22-63DA66D5E16B}"/>
-    <hyperlink ref="B42" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{DF4DED68-D6C9-4E91-8C78-1DE2535CD423}"/>
-    <hyperlink ref="N42" r:id="rId78" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{D6B5EB1C-D560-4102-9256-CEBA43980D91}"/>
-    <hyperlink ref="B43" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{5ACA1869-0325-42D7-BDC7-5897BD45A2D7}"/>
-    <hyperlink ref="N43" r:id="rId80" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{129AF516-6402-4CFE-96B3-7CF1B17AF228}"/>
-    <hyperlink ref="B44" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{D2394111-1541-4494-AD93-AE4A416DE963}"/>
-    <hyperlink ref="N44" r:id="rId82" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{2183BCC3-E38A-423A-8C4F-4C6FFCF18794}"/>
-    <hyperlink ref="B45" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{A90BDE5A-9C30-4217-8AF6-5DE430E28286}"/>
-    <hyperlink ref="B46" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{09CA8850-DABB-4C50-B127-28830C73650D}"/>
-    <hyperlink ref="N46" r:id="rId85" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{322A3EC8-428F-475A-ACF1-CFBACCFA9167}"/>
-    <hyperlink ref="B47" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{0EC7345E-02D0-40F7-8CF1-638AF05ADC6E}"/>
-    <hyperlink ref="N47" r:id="rId87" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{B2893376-DBEF-4A5B-B2E2-148BA9FF3753}"/>
-    <hyperlink ref="B48" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{54C0322A-9A61-457B-AAFE-EE97A130F140}"/>
-    <hyperlink ref="N48" r:id="rId89" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{EEFDCABF-2972-4B17-9FE6-767D282DD44F}"/>
-    <hyperlink ref="B49" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{ABAC25C4-5BB1-42AD-8B70-8C889E20E6A8}"/>
-    <hyperlink ref="N49" r:id="rId91" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{D13DEC6B-3ACE-40B2-B36A-EF839602BF42}"/>
-    <hyperlink ref="B50" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{77158B8F-0222-4D2A-A159-0A5C14B3C87C}"/>
-    <hyperlink ref="N50" r:id="rId93" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{7067EB1F-AC89-44E0-9C9D-2E82B5426E6F}"/>
-    <hyperlink ref="B51" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{C51E9A22-3F99-4F0D-82D7-52866477E085}"/>
-    <hyperlink ref="N51" r:id="rId95" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{A17AB054-3BA4-47CA-AB49-0544DAF761EE}"/>
-    <hyperlink ref="B52" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{C862171D-3A9D-4321-9661-76D7D45EFC95}"/>
-    <hyperlink ref="N52" r:id="rId97" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{B0D97457-84F7-46A5-95B9-0628A50767F1}"/>
-    <hyperlink ref="B53" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{82BC6876-05EF-48E7-A69C-2648BE96CD3A}"/>
-    <hyperlink ref="N53" r:id="rId99" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{5CE0F850-8D2B-473D-AB58-DEA4C471909C}"/>
-    <hyperlink ref="B54" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{56FB00DC-2444-4B01-98AE-3BC4396572CC}"/>
-    <hyperlink ref="N54" r:id="rId101" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{7B465A19-2623-40BE-9D82-EF7EBAE2F4AA}"/>
-    <hyperlink ref="B55" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{DA38B8D6-F7E8-40F1-8853-B1CD9A9FDBEE}"/>
-    <hyperlink ref="N55" r:id="rId103" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{B89C93DB-810A-4495-B860-6CAD3BE07224}"/>
-    <hyperlink ref="B56" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{9A464884-4EAF-464D-9F70-0A1EA41BE8CF}"/>
-    <hyperlink ref="N56" r:id="rId105" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{EC3E24B3-EDD9-4D8C-9209-D50FD7C5072E}"/>
-    <hyperlink ref="B57" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{147EA6BA-80E8-40B5-B924-8981CA6582A3}"/>
-    <hyperlink ref="N57" r:id="rId107" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{A3A2047E-D151-4E98-A75A-2AD78CEAF87D}"/>
-    <hyperlink ref="B58" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{ED47238F-78C5-4044-94FD-7D7ECE5F257A}"/>
-    <hyperlink ref="N58" r:id="rId109" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{63582093-D625-4A04-AA43-FBDE8EAACDCF}"/>
-    <hyperlink ref="B59" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{E0B4C516-94C2-4C68-8CA2-A809F1758216}"/>
-    <hyperlink ref="N59" r:id="rId111" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{11EB9050-E8FD-4516-BDB8-42ED4BA24630}"/>
-    <hyperlink ref="B60" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{6B76E002-0ECD-4C54-8053-682666ED64DE}"/>
-    <hyperlink ref="N60" r:id="rId113" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{91626F88-2FC7-455C-AD56-F30C1DDA5D8E}"/>
-    <hyperlink ref="B61" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{663FFA70-C4BE-4D44-B5D9-BFF3DAA254F0}"/>
-    <hyperlink ref="N61" r:id="rId115" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{5566EE9B-EF9F-4DB3-B552-025F536D151B}"/>
-    <hyperlink ref="B62" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{E8A490D4-AE6D-4112-9BD0-13CE36EE99A8}"/>
-    <hyperlink ref="N62" r:id="rId117" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{F39A90B0-D97C-489E-A1EE-84DDC9036F7B}"/>
-    <hyperlink ref="B63" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{9239674F-642E-4B0C-A794-A3CAFEC6A471}"/>
-    <hyperlink ref="N63" r:id="rId119" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{72F52F98-40ED-45B6-B436-542E0CD11AE5}"/>
-    <hyperlink ref="B64" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{19BEAFC7-C2B9-486C-AFF5-66E45A4168EB}"/>
-    <hyperlink ref="N64" r:id="rId121" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{3746D852-6507-41F4-9F49-0AE9095BD65F}"/>
-    <hyperlink ref="B65" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{E37C014B-8667-457C-BB62-E039FF426B96}"/>
-    <hyperlink ref="N65" r:id="rId123" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{1AF7E995-1B31-4DF5-8796-0408012519DD}"/>
-    <hyperlink ref="B66" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{E5C59AB1-1B79-4550-B94D-91CF9BA19FAE}"/>
-    <hyperlink ref="N66" r:id="rId125" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{8EB1272E-891D-46D5-9F3B-4A222838E3C5}"/>
-    <hyperlink ref="B67" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{9E390725-1C3F-46F5-9DEA-8A7BAF38DC3C}"/>
-    <hyperlink ref="N67" r:id="rId127" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{FCF29BF6-0FCF-4728-9A01-9015F047A790}"/>
-    <hyperlink ref="B68" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{0E34A6E1-37DC-46F5-8CF3-D02F2FC8F3D3}"/>
-    <hyperlink ref="N68" r:id="rId129" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{0CDAD004-EE77-482A-A4E0-EAF0BF810153}"/>
-    <hyperlink ref="B69" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{B8CCAD6B-0813-4C1A-B278-E723563FC02F}"/>
-    <hyperlink ref="N69" r:id="rId131" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{66CECD19-0CB7-484E-8978-7409EFA8281D}"/>
-    <hyperlink ref="B70" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{82902EF7-7202-471F-BEFA-2DB9C5534BBF}"/>
-    <hyperlink ref="N70" r:id="rId133" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{421AA997-D5AB-4655-98FA-BBFF1B3FBB2B}"/>
-    <hyperlink ref="B71" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{4B3B0CD7-FC5A-4511-ABB8-E3E9014B0830}"/>
-    <hyperlink ref="N71" r:id="rId135" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{4ED2D61F-CC5F-4B9B-AA29-CF61495932C0}"/>
-    <hyperlink ref="B72" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{37188467-4019-4CB5-B3A7-FC78052CE56F}"/>
-    <hyperlink ref="N72" r:id="rId137" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{EE026EB5-8569-4D88-80ED-5053BDFCDEB8}"/>
-    <hyperlink ref="B73" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{DDE060F8-B50D-424D-9213-D20F8BC47CE2}"/>
-    <hyperlink ref="N73" r:id="rId139" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{68E9A20C-61E9-4CED-B77E-5DE2DF20F9FA}"/>
-    <hyperlink ref="B74" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{87F687B3-D887-4F55-9AC3-E3033EE7D606}"/>
-    <hyperlink ref="N74" r:id="rId141" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{AA2CB47E-06E6-43D8-9314-80FA59816245}"/>
-    <hyperlink ref="B75" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{F1660B96-C749-4434-8513-110583EE0B51}"/>
-    <hyperlink ref="N75" r:id="rId143" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{F97F4FB9-CDB7-4BB8-B31A-D98AD6605BB1}"/>
-    <hyperlink ref="B76" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{0FFF37D0-03CB-41EC-9A40-B7CFCE688D68}"/>
-    <hyperlink ref="N76" r:id="rId145" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{D687B42C-C7B8-4FC0-82B1-65F72E6BBCB2}"/>
-    <hyperlink ref="B77" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{F0B321F7-F500-4136-9E44-41126467B5B2}"/>
-    <hyperlink ref="N77" r:id="rId147" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{6B19E11F-BECA-4D19-B0AD-D9AC954A32EE}"/>
-    <hyperlink ref="B78" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{8391F82D-6BAA-4612-A049-087E449A90E7}"/>
-    <hyperlink ref="N78" r:id="rId149" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{7C1419E9-A89C-40CE-8A76-8C825D02A421}"/>
-    <hyperlink ref="B79" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{384207E7-81C5-47EA-8AA5-D769A7E2FA9B}"/>
-    <hyperlink ref="N79" r:id="rId151" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{B36E3084-DCC8-4985-813F-865EDBD493AC}"/>
-    <hyperlink ref="B80" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{8CA209A2-E8E3-400F-9608-8E028D7C4BE7}"/>
-    <hyperlink ref="N80" r:id="rId153" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{CCBDEA10-13C7-46E9-A38B-6BD0D2EFB891}"/>
-    <hyperlink ref="B81" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{0C5ACA58-025E-4524-A432-8D395257029E}"/>
-    <hyperlink ref="N81" r:id="rId155" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{A261D13A-1CD6-4A53-915A-2AFC233AFEC8}"/>
-    <hyperlink ref="B82" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{0B80F637-E840-4803-8FE0-43727CDCF00C}"/>
-    <hyperlink ref="N82" r:id="rId157" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{3CB92BCD-FF72-40BA-9584-4D321ADF7DD8}"/>
-    <hyperlink ref="B83" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{65444C63-BC56-4831-838A-71F3554CD486}"/>
-    <hyperlink ref="N83" r:id="rId159" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{1F19D158-3D93-4904-B149-A2E066EC224B}"/>
-    <hyperlink ref="B84" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{F3BE6014-EB02-4EE9-991E-9E1137A004B2}"/>
-    <hyperlink ref="N84" r:id="rId161" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{97C04763-FD70-4420-90C3-DC093F392C62}"/>
-    <hyperlink ref="B85" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{0F28A00E-7069-4463-B324-0679163380F4}"/>
-    <hyperlink ref="N85" r:id="rId163" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{30DC574C-A552-414D-B45F-C7D639F7CF35}"/>
-    <hyperlink ref="B86" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{4E580621-E7A0-40F6-AB85-F85DAA153150}"/>
-    <hyperlink ref="N86" r:id="rId165" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{8A064C54-AC71-406E-A1DD-74EE97A8DD72}"/>
-    <hyperlink ref="B87" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{CB7539CE-9FFF-410B-9808-FC4B710A8339}"/>
-    <hyperlink ref="N87" r:id="rId167" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{BA5AA484-AD4D-4A9D-965A-0922233DC2DD}"/>
-    <hyperlink ref="B88" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{9B5D4028-9CF3-4561-9D5B-0A4A23DF22C8}"/>
-    <hyperlink ref="N88" r:id="rId169" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{56546A12-D801-4092-873F-79122BF3A578}"/>
-    <hyperlink ref="B89" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{4D7CE1D2-715D-4704-B118-E5AB1BFEDF17}"/>
-    <hyperlink ref="N89" r:id="rId171" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{8D0ADD61-B767-4DB0-9C94-AA2C90ACDB10}"/>
-    <hyperlink ref="B90" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{89F5DD74-1127-4859-812D-0A1D9352BE60}"/>
-    <hyperlink ref="N90" r:id="rId173" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{788FE9D3-F000-4476-996C-121AB26785F3}"/>
-    <hyperlink ref="B91" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{1424A5A1-0422-4D4D-AA3B-0C6FE31315A7}"/>
-    <hyperlink ref="N91" r:id="rId175" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{13AD8E0E-5211-494E-86CC-7E8A8BBA6609}"/>
-    <hyperlink ref="B92" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{9686FBBE-CD29-4229-A646-5E0C25821CB7}"/>
-    <hyperlink ref="N92" r:id="rId177" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{39ADCA4C-4615-4B26-B12C-6F680C50F03E}"/>
-    <hyperlink ref="B93" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{1657023F-2AA9-4114-AF1E-194271B6C88D}"/>
-    <hyperlink ref="N93" r:id="rId179" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{35E94F6E-1CFC-4B46-A5D0-30C357A06AA6}"/>
-    <hyperlink ref="B94" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{35748156-64B8-43F5-9DC2-DD0F72285D03}"/>
-    <hyperlink ref="N94" r:id="rId181" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{4C54ABE8-8AE9-4204-B6EF-F4E009D59F2A}"/>
-    <hyperlink ref="B95" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{32E5C026-61E7-47C9-8613-23177DD6F0B8}"/>
-    <hyperlink ref="N95" r:id="rId183" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{71EDBB4D-974A-45E4-B2E0-B9AA0B7CC27A}"/>
-    <hyperlink ref="B96" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{C8184179-0DAC-4217-9879-B091BAB7BBD9}"/>
-    <hyperlink ref="N96" r:id="rId185" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{55BB7A31-5E35-4A9D-AB4C-E2B0A73BA900}"/>
-    <hyperlink ref="B97" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{D2D972F3-C584-4EAB-89DF-0787BE6DF013}"/>
-    <hyperlink ref="N97" r:id="rId187" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{4299F2E2-F1E2-444A-A15B-D4B0C200959C}"/>
-    <hyperlink ref="B98" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{7690EFBF-3C89-42D1-851D-6726AE4ECD49}"/>
-    <hyperlink ref="N98" r:id="rId189" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{BCBB5D61-42EC-4EDF-A8D8-0151221B5859}"/>
-    <hyperlink ref="B99" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{B7FCEA00-F90A-4439-9276-9339BAF3B907}"/>
-    <hyperlink ref="N99" r:id="rId191" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{FD0616C4-06A4-4EAC-8298-3BD5C60CEF4D}"/>
-    <hyperlink ref="B100" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{DA124B0B-B412-40EB-9F52-B67A6237B5AF}"/>
-    <hyperlink ref="N100" r:id="rId193" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{528DE111-75DE-45E7-B187-FF7B4DFBEB01}"/>
-    <hyperlink ref="B101" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{76A38271-C817-4813-A6DA-F2637B64F6C3}"/>
-    <hyperlink ref="N101" r:id="rId195" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{08A58DFB-9FD6-4B7D-A0AF-F41586A85230}"/>
-    <hyperlink ref="B102" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{5FA47770-933E-4069-A7BC-D6CBD793F1F1}"/>
-    <hyperlink ref="N102" r:id="rId197" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{D9D9E8B5-26FA-4F35-944F-07E5789547EE}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{4138915F-27EF-4612-AE86-3AC4291E29EC}"/>
-    <hyperlink ref="N103" r:id="rId199" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{6A435994-6ADD-4762-A83B-F0C281598DB5}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{8D3C2BA2-CFD3-414C-A37C-8942C81DE173}"/>
-    <hyperlink ref="N104" r:id="rId201" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{C8F49874-2A4B-4117-8D81-DBD118B0C517}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{B00F6A2D-9FAD-4983-97F1-D4E7AD8088A7}"/>
-    <hyperlink ref="N105" r:id="rId203" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{27A40E16-F2D5-4B11-9B72-8B4C9C52A39F}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{A70D7974-6244-4C8D-8645-690FC45AF157}"/>
-    <hyperlink ref="N106" r:id="rId205" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{1576F486-06FC-438C-A623-18E289225645}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{3D4C5928-1E79-4C4E-9371-DD67AABBCC4F}"/>
-    <hyperlink ref="N107" r:id="rId207" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{137D2DFA-79CF-4896-A8D6-93FB603126D7}"/>
-    <hyperlink ref="B108" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{4E27B902-8D96-4FFF-98D0-6514507BB467}"/>
-    <hyperlink ref="N108" r:id="rId209" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{5C970830-4CB5-4458-BC2B-EC0EF20F8822}"/>
-    <hyperlink ref="B109" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{4F402706-2D91-4FAC-9897-78A90847EF31}"/>
-    <hyperlink ref="N109" r:id="rId211" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{18EC3B84-DBD0-4DE4-AB8B-C603B0437649}"/>
-    <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{988867C9-13A2-4D15-9C3C-C61F0AF298B7}"/>
-    <hyperlink ref="N110" r:id="rId213" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{1231FF74-017E-47A0-931E-35978A27694D}"/>
-    <hyperlink ref="B111" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{2520863E-160A-44C7-BF3C-227D73065DDE}"/>
-    <hyperlink ref="N111" r:id="rId215" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{7F9A86CE-6054-4464-B8B3-3757D0D87036}"/>
-    <hyperlink ref="B112" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{325AD017-F6C6-43BA-83E5-82A968B55420}"/>
-    <hyperlink ref="N112" r:id="rId217" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{AEC5B041-8938-426B-808B-F410A8FA9747}"/>
-    <hyperlink ref="B113" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{CF4D2CD8-38C6-437E-867A-A22F369B7576}"/>
-    <hyperlink ref="N113" r:id="rId219" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{A6300BA4-EC7C-4005-9DF9-98536B61939C}"/>
-    <hyperlink ref="B114" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{10255245-7994-414D-9712-D8A3DBF80C24}"/>
-    <hyperlink ref="N114" r:id="rId221" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{1EFD95F0-84A8-435E-A6F3-65A64CD8C5ED}"/>
-    <hyperlink ref="B115" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{C5389D8C-1E74-43F6-BA8D-952263BDEAE8}"/>
-    <hyperlink ref="N115" r:id="rId223" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{FE8E140D-6902-4DCD-9105-AB30CB7036D8}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{0EBBDF0C-2C32-4DBE-B0FA-3B1650D19FB0}"/>
-    <hyperlink ref="N116" r:id="rId225" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{84227870-7891-4D9C-9A2A-2763E4CB1D9B}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{238BED97-C6CA-46A3-A8D6-5973A7B41AF5}"/>
-    <hyperlink ref="N117" r:id="rId227" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{AFB72EDE-695E-4049-B4BF-1484FCD40B1C}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{1BF2D4BA-443B-45F8-98A1-E1383573E4BD}"/>
-    <hyperlink ref="N118" r:id="rId229" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{7F62FC57-8C43-4F87-9DB8-E276EC18630E}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{D4B1A266-0107-4B3A-A933-B395125E01B4}"/>
-    <hyperlink ref="N119" r:id="rId231" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{0F33681B-A7FA-4633-B8C3-CAA19B3F8F0A}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{11C47F7C-5142-4046-9465-931993E4A43F}"/>
-    <hyperlink ref="N120" r:id="rId233" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{A6E4DAB9-791A-44ED-9AB5-9366F0451792}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{8D691AB2-C0FC-4ACB-B04F-5AE59A6536AD}"/>
-    <hyperlink ref="N121" r:id="rId235" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{10CC456F-3724-4BD6-AD5C-F213749CEAF5}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{62305E4C-5AD8-496C-B2D0-F79BFE6BB137}"/>
-    <hyperlink ref="N122" r:id="rId237" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{256C2F2D-049C-4C73-935D-651E362F402E}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{845F21A5-7C88-4EF8-A340-C2EBF780F435}"/>
-    <hyperlink ref="N123" r:id="rId239" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{EFDC1CF5-FE59-443F-899B-11856935E1ED}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{E6A4A074-21EF-44D1-AF6E-9D405CB2EA84}"/>
-    <hyperlink ref="N124" r:id="rId241" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{B0892762-32FF-4D41-868B-2752BD569901}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{B25E1A3E-0DD1-45F6-BC6B-AD2EB915B8F1}"/>
-    <hyperlink ref="N125" r:id="rId243" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{637F5D6D-53D9-450A-8D5B-36D84F9CA0AD}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{FA29E4CE-F106-4F80-8DE0-010CE181BB4D}"/>
-    <hyperlink ref="N126" r:id="rId245" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{907F3BD7-5EF9-4B58-B78E-908C3F33EB7A}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{2C719F58-955A-4CFA-AC8A-28474D71B6F1}"/>
-    <hyperlink ref="N127" r:id="rId247" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{951AC943-2622-4E72-B649-B2D346E8252F}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{E0C4667D-1977-4654-8C79-B45AEF846986}"/>
-    <hyperlink ref="N128" r:id="rId249" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{409CC11C-6255-4C79-BA53-B4B0AE46C64D}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{F1212C7C-8C69-42D5-A273-AB9DC0DBE981}"/>
-    <hyperlink ref="N129" r:id="rId251" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{4FAD7410-C4A3-487A-BB26-76947F6AFD24}"/>
-    <hyperlink ref="B130" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{454BAF5A-F209-40F1-9D06-71E08C9D34D6}"/>
-    <hyperlink ref="N130" r:id="rId253" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{BA2E1E72-11C5-4C6D-8E2A-0D38AF658F78}"/>
-    <hyperlink ref="B131" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{7C337F5A-3ADE-43F4-93AB-B32903FACFC3}"/>
-    <hyperlink ref="N131" r:id="rId255" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{ABEB44D7-0187-4743-B588-3ADBAE828ACB}"/>
-    <hyperlink ref="B132" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{660A7480-6468-4EAF-A878-E896411B7DD3}"/>
-    <hyperlink ref="N132" r:id="rId257" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{33AB2ED5-5E52-4417-97F4-21E8D99A028F}"/>
-    <hyperlink ref="B133" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{1B9FF019-E245-4A59-BB56-AED59A3EB928}"/>
-    <hyperlink ref="N133" r:id="rId259" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{D0F4B155-8694-478D-86B1-B7C9F549840A}"/>
-    <hyperlink ref="B134" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{35735C8C-C644-41E0-BF70-E1021F9C2B0E}"/>
-    <hyperlink ref="N134" r:id="rId261" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{4DD4C96D-080B-4FE2-8B45-85891147972E}"/>
-    <hyperlink ref="B135" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{D7C342C5-DA58-40B0-A813-B314F1A1E9C6}"/>
-    <hyperlink ref="N135" r:id="rId263" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{D312CADB-4AAA-4D80-9FC1-950C8C4EEF9C}"/>
-    <hyperlink ref="B136" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{DBDFC6B9-586A-4F1F-90AD-80FEADA359F3}"/>
-    <hyperlink ref="N136" r:id="rId265" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{A16579A6-CC59-479D-B6B8-F947B9129F8A}"/>
-    <hyperlink ref="B137" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{5A246C32-AA5F-4C08-B731-F89AF5E17E3D}"/>
-    <hyperlink ref="N137" r:id="rId267" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{36031D1A-6F8D-432E-9607-BD45100E7631}"/>
-    <hyperlink ref="B138" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{D103116F-FBB9-4D0A-9682-0523598387ED}"/>
-    <hyperlink ref="N138" r:id="rId269" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{9628A103-A5DA-43EF-B2E5-8531B6BB606A}"/>
-    <hyperlink ref="B139" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{04D2143A-403D-4E01-8B99-20E3DA6C48B7}"/>
-    <hyperlink ref="N139" r:id="rId271" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{414C567E-F6B1-4321-89F0-C18BBF351646}"/>
-    <hyperlink ref="B140" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{F3979340-AA52-41D4-920F-9C4A594AED55}"/>
-    <hyperlink ref="N140" r:id="rId273" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{673EF250-8510-4B91-8A24-0F7DE87D64E3}"/>
-    <hyperlink ref="B141" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{373BCA05-7A9B-435E-B2BC-7B00BAFDE8A4}"/>
-    <hyperlink ref="N141" r:id="rId275" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{027FD458-5455-4F70-B881-03690069A397}"/>
-    <hyperlink ref="B142" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{3BE126CC-6A6D-48C5-B87D-10925E9D9211}"/>
-    <hyperlink ref="N142" r:id="rId277" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{CFA81B77-5694-4FAC-96D3-F04C8DCD6E8B}"/>
-    <hyperlink ref="B143" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{CB1E1707-6014-48D9-B529-6B2AFE42ADA1}"/>
-    <hyperlink ref="N143" r:id="rId279" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{6F5A9126-4695-4FA1-B2E3-FDC241CBC8DA}"/>
-    <hyperlink ref="B144" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{7182BC0D-DB90-4B97-B5B9-DB55CBAE6AAF}"/>
-    <hyperlink ref="N144" r:id="rId281" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{BF3989F3-B10A-4D5F-8631-974763AD2D26}"/>
-    <hyperlink ref="B145" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{1775A236-EACA-4771-B560-D07C165B0882}"/>
-    <hyperlink ref="N145" r:id="rId283" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{FEEF2112-2AEA-4194-B65F-E5C2038304EA}"/>
-    <hyperlink ref="B146" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{273F8318-0E61-4210-9FAB-E5788960E06C}"/>
-    <hyperlink ref="N146" r:id="rId285" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{BBECB63F-3533-4938-8EA8-338FC0950597}"/>
-    <hyperlink ref="B147" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{6AEFE7E8-8517-41A6-B6DF-3EACE46DF4B4}"/>
-    <hyperlink ref="N147" r:id="rId287" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{29B20192-681F-4C3C-A743-A97AD8FE94B4}"/>
-    <hyperlink ref="B148" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{38F54190-BD5A-411A-9F0E-3D86AE27C3C9}"/>
-    <hyperlink ref="N148" r:id="rId289" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{47A2EE42-2C91-4B62-AF51-A34BA33044CA}"/>
-    <hyperlink ref="B149" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{2B1D6A0B-1FE3-4140-A988-370DAA7C666D}"/>
-    <hyperlink ref="N149" r:id="rId291" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{0574E50C-6E69-47E0-9977-A1EECA8AB5C3}"/>
-    <hyperlink ref="B150" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{33919AB1-F0C6-4026-8944-A65D6478EB5F}"/>
-    <hyperlink ref="N150" r:id="rId293" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{1F644423-CE9B-4201-A6A4-C10966499923}"/>
-    <hyperlink ref="B151" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{E60B5752-3357-4F9D-BCF8-C9AEE18C0C4A}"/>
-    <hyperlink ref="N151" r:id="rId295" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{643B9D8D-3362-4FC0-832B-335A2F3C96BA}"/>
-    <hyperlink ref="B152" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{35323E66-DF28-4F74-891A-17CE40B51517}"/>
-    <hyperlink ref="N152" r:id="rId297" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{E5F7D963-4812-4F48-BEDA-0C462A0E3162}"/>
-    <hyperlink ref="B153" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{85D9D4E9-038D-436B-962F-514CE33C9CF7}"/>
-    <hyperlink ref="N153" r:id="rId299" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{40AD18A0-890C-4811-A0E4-8CA59E05E847}"/>
-    <hyperlink ref="B154" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{0F55F53F-E4D5-4933-96B4-12C4D309A3C8}"/>
-    <hyperlink ref="N154" r:id="rId301" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{F8E456D4-9E4A-4EC1-9596-CE0D8BFBF244}"/>
-    <hyperlink ref="B155" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{EF135917-ADF9-4869-8869-EC64E0B817B0}"/>
-    <hyperlink ref="B156" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{D95E4E79-6342-401E-A262-75EC19428367}"/>
-    <hyperlink ref="N156" r:id="rId304" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{987AE79E-430B-4F1E-8B7C-0123DAA9CBEC}"/>
-    <hyperlink ref="B157" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{24A93F29-CAD7-4BAB-836D-6B54916DFF56}"/>
-    <hyperlink ref="N157" r:id="rId306" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{9A72656B-3841-46C4-AC27-2BE84E2AA2DC}"/>
-    <hyperlink ref="B158" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{396C8C61-04E3-4E4F-B1EF-70E74DE07341}"/>
-    <hyperlink ref="N158" r:id="rId308" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{0B0526EF-7AFA-4DDA-A8DA-C42F77D2E539}"/>
-    <hyperlink ref="B159" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{8C47430F-B02E-42C9-9A06-32B8232A07B9}"/>
-    <hyperlink ref="N159" r:id="rId310" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{8509207F-6593-402D-9542-7AEEF1846504}"/>
-    <hyperlink ref="B160" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{41530331-A5E9-40C9-A1D3-EFCCE901E605}"/>
-    <hyperlink ref="N160" r:id="rId312" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{2ADB56C9-B893-4A08-87B3-54F5C5DC1F05}"/>
-    <hyperlink ref="B161" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{2A72BA74-A6B0-4AFB-8B4B-53EB401BE990}"/>
-    <hyperlink ref="N161" r:id="rId314" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{DF8B88F3-AC99-4BCC-9C5D-4750F6BAB962}"/>
-    <hyperlink ref="B162" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{C4458A5B-3E6D-477C-A500-C451FDA7457F}"/>
-    <hyperlink ref="N162" r:id="rId316" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{B668ADA3-BCE3-4A19-A2E1-A70D83C6278B}"/>
-    <hyperlink ref="B163" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{768C7018-79E2-4866-950F-A258B89D89D4}"/>
-    <hyperlink ref="N163" r:id="rId318" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{748347D3-F46D-4303-B54B-83102311DE59}"/>
-    <hyperlink ref="B164" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{30ABCB1E-9029-4B02-A2EF-270995014733}"/>
-    <hyperlink ref="N164" r:id="rId320" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{380D65EC-5ADD-446C-A1C0-E245E1BBB84A}"/>
-    <hyperlink ref="B165" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{3C8260A7-FE2F-409F-9738-436C155A6481}"/>
-    <hyperlink ref="N165" r:id="rId322" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{1918C7D9-B7DE-4668-85DE-CC50F911127E}"/>
-    <hyperlink ref="B166" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{E7D2C42D-53AF-4D05-B135-13E232E7E34A}"/>
-    <hyperlink ref="N166" r:id="rId324" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{BA2B139C-9F2B-41CC-9DA3-95F2FB333D7B}"/>
-    <hyperlink ref="B167" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{2AAC644F-D69A-4EED-BFC4-8B2BFB145C4D}"/>
-    <hyperlink ref="N167" r:id="rId326" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{590B34BD-A0EA-49F9-B3D3-3A5035E32C10}"/>
-    <hyperlink ref="B168" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{FE82996D-F276-481B-959B-A979CD1EF034}"/>
-    <hyperlink ref="N168" r:id="rId328" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{2072B9A2-DDF3-4E4B-8C25-ECBFA9C32476}"/>
-    <hyperlink ref="B169" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{DE9534E9-521F-48A2-9533-BA62F3A649B1}"/>
-    <hyperlink ref="N169" r:id="rId330" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{E47FC7AC-8613-485C-B0A8-C48A44EF8183}"/>
-    <hyperlink ref="B171" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{311376EF-617A-452F-8EC3-FE06EB061668}"/>
-    <hyperlink ref="N171" r:id="rId332" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{01ACE3F0-0949-4B02-9F49-7D45FA87EA06}"/>
-    <hyperlink ref="B172" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{96138BD8-EE52-46E2-80F8-B7D3E6439B0E}"/>
-    <hyperlink ref="N172" r:id="rId334" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{64DC1F88-0673-4DDA-8112-5F09D944876F}"/>
-    <hyperlink ref="B173" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{DA391DC7-5873-4D1E-B30E-2AFD2CE5B950}"/>
-    <hyperlink ref="N173" r:id="rId336" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{7BE1419D-2160-4B2F-8C44-D6FFE5B91734}"/>
-    <hyperlink ref="B174" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{4C5353BE-7452-4234-AE91-136AD15C791E}"/>
-    <hyperlink ref="N174" r:id="rId338" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{7F1FC598-4826-45BD-8EB1-20E1952123A1}"/>
-    <hyperlink ref="B175" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{F309FD17-1528-496F-9F5A-7B8957C1DB6E}"/>
-    <hyperlink ref="N175" r:id="rId340" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{8652014D-53EA-402B-B445-A4D26DA9DBF7}"/>
-    <hyperlink ref="B176" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{6382F0DB-C706-41D7-9C80-462F16B8CE30}"/>
-    <hyperlink ref="N176" r:id="rId342" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{95B7733F-35C8-4E42-B8F2-1D040893F749}"/>
-    <hyperlink ref="B177" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{C46932A9-9AFD-4645-86B3-56134DB641BB}"/>
-    <hyperlink ref="N177" r:id="rId344" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{347D8942-10F0-4234-B97E-85A5FC37B674}"/>
-    <hyperlink ref="B178" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{62E3B0D3-4539-4790-BAB0-3AC60AB0442C}"/>
-    <hyperlink ref="N178" r:id="rId346" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{15300521-0D3D-4411-94FB-F20F7CFC2987}"/>
-    <hyperlink ref="B179" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{2BD56AF9-26C9-4123-9636-6D814E8C6CE9}"/>
-    <hyperlink ref="N179" r:id="rId348" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{9F6984A7-109C-4FE0-9253-9F8433C3F9EA}"/>
-    <hyperlink ref="B180" r:id="rId349" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{85C0B84A-C2D5-40EE-ADAC-F8045294C764}"/>
-    <hyperlink ref="N180" r:id="rId350" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{651747C9-BEEA-499F-90C9-B6EABA366D84}"/>
-    <hyperlink ref="B181" r:id="rId351" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{7C19F8D4-6BCD-4F8F-8762-723276179097}"/>
-    <hyperlink ref="N181" r:id="rId352" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{A1BD13D1-11CB-4999-A97E-D028B1C0CBE6}"/>
-    <hyperlink ref="B182" r:id="rId353" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{F3D16B00-F847-4EBF-B64A-98B3FE1A06FF}"/>
-    <hyperlink ref="N182" r:id="rId354" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{A8007185-488B-4D2D-82D3-9DAD908690E0}"/>
-    <hyperlink ref="B183" r:id="rId355" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{74D185B9-7691-4FA0-BD60-92782A11DD4C}"/>
-    <hyperlink ref="N183" r:id="rId356" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{25FD4EDD-65CE-49E4-87FD-85E701395EBC}"/>
-    <hyperlink ref="B184" r:id="rId357" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{3591180B-2F35-48AA-830A-4DC185DF0804}"/>
-    <hyperlink ref="N184" r:id="rId358" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{47CDCD99-B74D-45A9-8CE5-55117604783F}"/>
-    <hyperlink ref="B185" r:id="rId359" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{0E7FDFC5-3F70-4715-A4EE-453234967E57}"/>
-    <hyperlink ref="N185" r:id="rId360" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{2DD00758-7F45-4886-8390-93AB87FFBA72}"/>
-    <hyperlink ref="B186" r:id="rId361" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{4CCD7DA1-7762-4C94-88D6-D4898153A319}"/>
-    <hyperlink ref="N186" r:id="rId362" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{F087584C-3CC3-4064-830E-00410960F5A8}"/>
-    <hyperlink ref="B187" r:id="rId363" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{B1BD48E8-08BD-4B6C-9B67-70A5244FB281}"/>
-    <hyperlink ref="N187" r:id="rId364" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{F5153746-9D37-46EE-B646-8AFA380570E3}"/>
-    <hyperlink ref="B188" r:id="rId365" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{B120B23A-4C70-4BA8-86B4-929C4AC012D3}"/>
-    <hyperlink ref="N188" r:id="rId366" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{B167A829-695A-4193-80F3-20BA2E5F916B}"/>
-    <hyperlink ref="B189" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{589E60AD-4A18-4A68-9CDE-5DAB2E2737B7}"/>
-    <hyperlink ref="N189" r:id="rId368" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{207F574F-CC73-48C4-9D40-E478628632E7}"/>
-    <hyperlink ref="B190" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{3F0F9A81-BCB4-495E-AAC6-2BA99E3E6F0B}"/>
-    <hyperlink ref="N190" r:id="rId370" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{1DF384AD-C770-4A35-8A51-7524E1C3E63F}"/>
-    <hyperlink ref="B191" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{32E6EA60-23C7-440F-8B1F-7634F145070D}"/>
-    <hyperlink ref="N191" r:id="rId372" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{2F11DC98-C0FC-4F86-B235-5746B80BD1BA}"/>
-    <hyperlink ref="B192" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{B310BCF4-9266-41B5-8BB1-98D824CEEDBB}"/>
-    <hyperlink ref="N192" r:id="rId374" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{9AB07F3A-297F-4859-950A-9DC800BE8526}"/>
-    <hyperlink ref="B193" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{4B79D839-3C61-43C6-986A-AD183669F85C}"/>
-    <hyperlink ref="N193" r:id="rId376" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{DE55B5C9-BB95-4843-B7A1-E3A20517008B}"/>
-    <hyperlink ref="B194" r:id="rId377" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{3BB1C6F7-8565-4F48-8196-62140CA01435}"/>
-    <hyperlink ref="N194" r:id="rId378" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{23F4B1B7-0C6C-4610-B84F-99A7E283594B}"/>
-    <hyperlink ref="B195" r:id="rId379" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{2C9A2052-2C89-44EA-98FF-54D32C085D41}"/>
-    <hyperlink ref="N195" r:id="rId380" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{9CEE8423-D91B-40D5-AB73-17C2FBF590FE}"/>
-    <hyperlink ref="B196" r:id="rId381" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{A2B15972-4477-481B-8836-3897D95CC3AB}"/>
-    <hyperlink ref="N196" r:id="rId382" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{846D7D0A-B514-4209-859F-A44B1F4D2B6F}"/>
-    <hyperlink ref="B197" r:id="rId383" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{96C98F47-60B8-4F1F-BB28-4B7E7E89D328}"/>
-    <hyperlink ref="N197" r:id="rId384" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{B8786DD9-3E15-4EA3-874B-99A8DEB53AD3}"/>
-    <hyperlink ref="B198" r:id="rId385" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{898D402C-245B-4886-B24F-9A3AE4B14D76}"/>
-    <hyperlink ref="N198" r:id="rId386" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{C657CF9B-A601-4CC3-9F40-000CE8B4B169}"/>
-    <hyperlink ref="B199" r:id="rId387" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{CD808653-4DBB-41F2-AC3B-7FB42039FF40}"/>
-    <hyperlink ref="N199" r:id="rId388" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{FC580454-40B8-4A2C-90AF-87F5A53B0226}"/>
-    <hyperlink ref="B200" r:id="rId389" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{8ADA69ED-7256-4B9B-85A4-3660581B2FE1}"/>
-    <hyperlink ref="N200" r:id="rId390" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{A70D0A7B-D9B8-4CAD-85F9-CCB3D6F4D3C8}"/>
-    <hyperlink ref="B201" r:id="rId391" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{183B2D0C-2710-40ED-8E1C-4FF0FC5A329A}"/>
-    <hyperlink ref="N201" r:id="rId392" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{36D64C00-16D9-4E87-BE10-C29C7923C6EE}"/>
-    <hyperlink ref="B202" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{624ADC24-1835-422C-B15D-188A608D647E}"/>
-    <hyperlink ref="N202" r:id="rId394" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{EC5390FC-B9FA-4AB6-BAB2-A816C7F1BDC5}"/>
-    <hyperlink ref="B203" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{388EC26B-65D1-45C7-B3E6-C87093AF6D70}"/>
-    <hyperlink ref="N203" r:id="rId396" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{71A62CA6-74DB-48B4-ACB3-F556EBD7EE0B}"/>
-    <hyperlink ref="B204" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{934469BC-ACF2-46DD-82F1-EECFAE148ED2}"/>
-    <hyperlink ref="N204" r:id="rId398" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{2D0B816C-2DB5-4D79-BB1B-C68E6BC8DF9F}"/>
-    <hyperlink ref="B205" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{F67C17B3-B851-4462-96C5-EF739C064691}"/>
-    <hyperlink ref="N205" r:id="rId400" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{C4E28C8F-C342-46A7-9561-91695C51FE8D}"/>
-    <hyperlink ref="B206" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{E30A604D-64B5-4F1A-9876-CFC0695745BA}"/>
-    <hyperlink ref="N206" r:id="rId402" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{A7789FA1-87B9-4BB8-A35E-E4BF749F3FF3}"/>
-    <hyperlink ref="B207" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{868902E0-A366-4202-AC84-38C4755CEB57}"/>
-    <hyperlink ref="N207" r:id="rId404" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{2976DF33-1090-4D7D-B6FF-304C76F54BE1}"/>
-    <hyperlink ref="B208" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{35F2797C-DA9A-48DF-9C6C-3A99CCA65CED}"/>
-    <hyperlink ref="N208" r:id="rId406" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{285F2F83-473B-491A-9D5C-33E6281112BA}"/>
-    <hyperlink ref="B209" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{FD799715-92B9-445D-B110-B598F40E6A48}"/>
-    <hyperlink ref="N209" r:id="rId408" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{B02A0B7E-30DF-4F3B-B31E-C3A8F9DA1B9F}"/>
-    <hyperlink ref="B210" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{AF4AB75E-0E95-4736-9187-CE46D437DB13}"/>
-    <hyperlink ref="N210" r:id="rId410" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{A7E14449-94CB-4F1D-9167-6268ED380919}"/>
-    <hyperlink ref="B211" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{2F2705F1-5C7C-49E8-B71F-2FF4A78E0325}"/>
-    <hyperlink ref="N211" r:id="rId412" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{0B3A90BC-3412-4EDA-93C5-C7AA250F5D42}"/>
-    <hyperlink ref="B212" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{4CAE2E8D-2828-484C-9634-5A784A00DC9B}"/>
-    <hyperlink ref="N212" r:id="rId414" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{F5C99F80-C5F5-47E1-BD58-34E4B21248EF}"/>
-    <hyperlink ref="B213" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{62A83C15-DCC8-46F6-AA34-B1EE703DB2F4}"/>
-    <hyperlink ref="N213" r:id="rId416" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{F464FF4F-77DC-466B-ABEE-16C42239924F}"/>
-    <hyperlink ref="B214" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{CE8E4DF8-46E8-459C-A5A5-31DC4DA8B8CD}"/>
-    <hyperlink ref="N214" r:id="rId418" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{E873DB61-E8F8-4A11-8FD6-21E6373BDC95}"/>
-    <hyperlink ref="B215" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{DC8C2AD5-7F7F-4930-A6D1-E672FA7EAE73}"/>
-    <hyperlink ref="N215" r:id="rId420" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{5922B652-89B3-466D-A582-010C3B474D20}"/>
-    <hyperlink ref="B217" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{15C0DB99-E824-424F-9D38-1F583078F557}"/>
-    <hyperlink ref="N217" r:id="rId422" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{9F9E3523-30F5-48DE-8950-E591B50856C9}"/>
+    <hyperlink ref="N217" r:id="rId1" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{9F9E3523-30F5-48DE-8950-E591B50856C9}"/>
+    <hyperlink ref="B217" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{15C0DB99-E824-424F-9D38-1F583078F557}"/>
+    <hyperlink ref="N215" r:id="rId3" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{5922B652-89B3-466D-A582-010C3B474D20}"/>
+    <hyperlink ref="B215" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{DC8C2AD5-7F7F-4930-A6D1-E672FA7EAE73}"/>
+    <hyperlink ref="N214" r:id="rId5" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{E873DB61-E8F8-4A11-8FD6-21E6373BDC95}"/>
+    <hyperlink ref="B214" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{CE8E4DF8-46E8-459C-A5A5-31DC4DA8B8CD}"/>
+    <hyperlink ref="N213" r:id="rId7" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{F464FF4F-77DC-466B-ABEE-16C42239924F}"/>
+    <hyperlink ref="B213" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{62A83C15-DCC8-46F6-AA34-B1EE703DB2F4}"/>
+    <hyperlink ref="N212" r:id="rId9" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{F5C99F80-C5F5-47E1-BD58-34E4B21248EF}"/>
+    <hyperlink ref="B212" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{4CAE2E8D-2828-484C-9634-5A784A00DC9B}"/>
+    <hyperlink ref="N211" r:id="rId11" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{0B3A90BC-3412-4EDA-93C5-C7AA250F5D42}"/>
+    <hyperlink ref="B211" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{2F2705F1-5C7C-49E8-B71F-2FF4A78E0325}"/>
+    <hyperlink ref="N210" r:id="rId13" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{A7E14449-94CB-4F1D-9167-6268ED380919}"/>
+    <hyperlink ref="B210" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{AF4AB75E-0E95-4736-9187-CE46D437DB13}"/>
+    <hyperlink ref="N209" r:id="rId15" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{B02A0B7E-30DF-4F3B-B31E-C3A8F9DA1B9F}"/>
+    <hyperlink ref="B209" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{FD799715-92B9-445D-B110-B598F40E6A48}"/>
+    <hyperlink ref="N208" r:id="rId17" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{285F2F83-473B-491A-9D5C-33E6281112BA}"/>
+    <hyperlink ref="B208" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{35F2797C-DA9A-48DF-9C6C-3A99CCA65CED}"/>
+    <hyperlink ref="N207" r:id="rId19" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{2976DF33-1090-4D7D-B6FF-304C76F54BE1}"/>
+    <hyperlink ref="B207" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{868902E0-A366-4202-AC84-38C4755CEB57}"/>
+    <hyperlink ref="N206" r:id="rId21" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{A7789FA1-87B9-4BB8-A35E-E4BF749F3FF3}"/>
+    <hyperlink ref="B206" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{E30A604D-64B5-4F1A-9876-CFC0695745BA}"/>
+    <hyperlink ref="N205" r:id="rId23" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{C4E28C8F-C342-46A7-9561-91695C51FE8D}"/>
+    <hyperlink ref="B205" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{F67C17B3-B851-4462-96C5-EF739C064691}"/>
+    <hyperlink ref="N204" r:id="rId25" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{2D0B816C-2DB5-4D79-BB1B-C68E6BC8DF9F}"/>
+    <hyperlink ref="B204" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{934469BC-ACF2-46DD-82F1-EECFAE148ED2}"/>
+    <hyperlink ref="N203" r:id="rId27" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{71A62CA6-74DB-48B4-ACB3-F556EBD7EE0B}"/>
+    <hyperlink ref="B203" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{388EC26B-65D1-45C7-B3E6-C87093AF6D70}"/>
+    <hyperlink ref="N202" r:id="rId29" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{EC5390FC-B9FA-4AB6-BAB2-A816C7F1BDC5}"/>
+    <hyperlink ref="B202" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{624ADC24-1835-422C-B15D-188A608D647E}"/>
+    <hyperlink ref="N201" r:id="rId31" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{36D64C00-16D9-4E87-BE10-C29C7923C6EE}"/>
+    <hyperlink ref="B201" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{183B2D0C-2710-40ED-8E1C-4FF0FC5A329A}"/>
+    <hyperlink ref="N200" r:id="rId33" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{A70D0A7B-D9B8-4CAD-85F9-CCB3D6F4D3C8}"/>
+    <hyperlink ref="B200" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{8ADA69ED-7256-4B9B-85A4-3660581B2FE1}"/>
+    <hyperlink ref="N199" r:id="rId35" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{FC580454-40B8-4A2C-90AF-87F5A53B0226}"/>
+    <hyperlink ref="B199" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{CD808653-4DBB-41F2-AC3B-7FB42039FF40}"/>
+    <hyperlink ref="N198" r:id="rId37" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{C657CF9B-A601-4CC3-9F40-000CE8B4B169}"/>
+    <hyperlink ref="B198" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{898D402C-245B-4886-B24F-9A3AE4B14D76}"/>
+    <hyperlink ref="N197" r:id="rId39" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{B8786DD9-3E15-4EA3-874B-99A8DEB53AD3}"/>
+    <hyperlink ref="B197" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{96C98F47-60B8-4F1F-BB28-4B7E7E89D328}"/>
+    <hyperlink ref="N196" r:id="rId41" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{846D7D0A-B514-4209-859F-A44B1F4D2B6F}"/>
+    <hyperlink ref="B196" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{A2B15972-4477-481B-8836-3897D95CC3AB}"/>
+    <hyperlink ref="N195" r:id="rId43" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{9CEE8423-D91B-40D5-AB73-17C2FBF590FE}"/>
+    <hyperlink ref="B195" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{2C9A2052-2C89-44EA-98FF-54D32C085D41}"/>
+    <hyperlink ref="N194" r:id="rId45" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{23F4B1B7-0C6C-4610-B84F-99A7E283594B}"/>
+    <hyperlink ref="B194" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{3BB1C6F7-8565-4F48-8196-62140CA01435}"/>
+    <hyperlink ref="N193" r:id="rId47" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{DE55B5C9-BB95-4843-B7A1-E3A20517008B}"/>
+    <hyperlink ref="B193" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{4B79D839-3C61-43C6-986A-AD183669F85C}"/>
+    <hyperlink ref="N192" r:id="rId49" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{9AB07F3A-297F-4859-950A-9DC800BE8526}"/>
+    <hyperlink ref="B192" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{B310BCF4-9266-41B5-8BB1-98D824CEEDBB}"/>
+    <hyperlink ref="N191" r:id="rId51" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{2F11DC98-C0FC-4F86-B235-5746B80BD1BA}"/>
+    <hyperlink ref="B191" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{32E6EA60-23C7-440F-8B1F-7634F145070D}"/>
+    <hyperlink ref="N190" r:id="rId53" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{1DF384AD-C770-4A35-8A51-7524E1C3E63F}"/>
+    <hyperlink ref="B190" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{3F0F9A81-BCB4-495E-AAC6-2BA99E3E6F0B}"/>
+    <hyperlink ref="N189" r:id="rId55" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{207F574F-CC73-48C4-9D40-E478628632E7}"/>
+    <hyperlink ref="B189" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{589E60AD-4A18-4A68-9CDE-5DAB2E2737B7}"/>
+    <hyperlink ref="N188" r:id="rId57" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{B167A829-695A-4193-80F3-20BA2E5F916B}"/>
+    <hyperlink ref="B188" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{B120B23A-4C70-4BA8-86B4-929C4AC012D3}"/>
+    <hyperlink ref="N187" r:id="rId59" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{F5153746-9D37-46EE-B646-8AFA380570E3}"/>
+    <hyperlink ref="B187" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{B1BD48E8-08BD-4B6C-9B67-70A5244FB281}"/>
+    <hyperlink ref="N186" r:id="rId61" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{F087584C-3CC3-4064-830E-00410960F5A8}"/>
+    <hyperlink ref="B186" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{4CCD7DA1-7762-4C94-88D6-D4898153A319}"/>
+    <hyperlink ref="N185" r:id="rId63" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{2DD00758-7F45-4886-8390-93AB87FFBA72}"/>
+    <hyperlink ref="B185" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{0E7FDFC5-3F70-4715-A4EE-453234967E57}"/>
+    <hyperlink ref="N184" r:id="rId65" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{47CDCD99-B74D-45A9-8CE5-55117604783F}"/>
+    <hyperlink ref="B184" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{3591180B-2F35-48AA-830A-4DC185DF0804}"/>
+    <hyperlink ref="N183" r:id="rId67" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{25FD4EDD-65CE-49E4-87FD-85E701395EBC}"/>
+    <hyperlink ref="B183" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{74D185B9-7691-4FA0-BD60-92782A11DD4C}"/>
+    <hyperlink ref="N182" r:id="rId69" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{A8007185-488B-4D2D-82D3-9DAD908690E0}"/>
+    <hyperlink ref="B182" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{F3D16B00-F847-4EBF-B64A-98B3FE1A06FF}"/>
+    <hyperlink ref="N181" r:id="rId71" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{A1BD13D1-11CB-4999-A97E-D028B1C0CBE6}"/>
+    <hyperlink ref="B181" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{7C19F8D4-6BCD-4F8F-8762-723276179097}"/>
+    <hyperlink ref="N180" r:id="rId73" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{651747C9-BEEA-499F-90C9-B6EABA366D84}"/>
+    <hyperlink ref="B180" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{85C0B84A-C2D5-40EE-ADAC-F8045294C764}"/>
+    <hyperlink ref="N179" r:id="rId75" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{9F6984A7-109C-4FE0-9253-9F8433C3F9EA}"/>
+    <hyperlink ref="B179" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{2BD56AF9-26C9-4123-9636-6D814E8C6CE9}"/>
+    <hyperlink ref="N178" r:id="rId77" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{15300521-0D3D-4411-94FB-F20F7CFC2987}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{62E3B0D3-4539-4790-BAB0-3AC60AB0442C}"/>
+    <hyperlink ref="N177" r:id="rId79" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{347D8942-10F0-4234-B97E-85A5FC37B674}"/>
+    <hyperlink ref="B177" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{C46932A9-9AFD-4645-86B3-56134DB641BB}"/>
+    <hyperlink ref="N176" r:id="rId81" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{95B7733F-35C8-4E42-B8F2-1D040893F749}"/>
+    <hyperlink ref="B176" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{6382F0DB-C706-41D7-9C80-462F16B8CE30}"/>
+    <hyperlink ref="N175" r:id="rId83" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{8652014D-53EA-402B-B445-A4D26DA9DBF7}"/>
+    <hyperlink ref="B175" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{F309FD17-1528-496F-9F5A-7B8957C1DB6E}"/>
+    <hyperlink ref="N174" r:id="rId85" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{7F1FC598-4826-45BD-8EB1-20E1952123A1}"/>
+    <hyperlink ref="B174" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{4C5353BE-7452-4234-AE91-136AD15C791E}"/>
+    <hyperlink ref="N173" r:id="rId87" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{7BE1419D-2160-4B2F-8C44-D6FFE5B91734}"/>
+    <hyperlink ref="B173" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{DA391DC7-5873-4D1E-B30E-2AFD2CE5B950}"/>
+    <hyperlink ref="N172" r:id="rId89" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{64DC1F88-0673-4DDA-8112-5F09D944876F}"/>
+    <hyperlink ref="B172" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{96138BD8-EE52-46E2-80F8-B7D3E6439B0E}"/>
+    <hyperlink ref="N171" r:id="rId91" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{01ACE3F0-0949-4B02-9F49-7D45FA87EA06}"/>
+    <hyperlink ref="B171" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{311376EF-617A-452F-8EC3-FE06EB061668}"/>
+    <hyperlink ref="N169" r:id="rId93" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{E47FC7AC-8613-485C-B0A8-C48A44EF8183}"/>
+    <hyperlink ref="B169" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{DE9534E9-521F-48A2-9533-BA62F3A649B1}"/>
+    <hyperlink ref="N168" r:id="rId95" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{2072B9A2-DDF3-4E4B-8C25-ECBFA9C32476}"/>
+    <hyperlink ref="B168" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{FE82996D-F276-481B-959B-A979CD1EF034}"/>
+    <hyperlink ref="N167" r:id="rId97" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{590B34BD-A0EA-49F9-B3D3-3A5035E32C10}"/>
+    <hyperlink ref="B167" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{2AAC644F-D69A-4EED-BFC4-8B2BFB145C4D}"/>
+    <hyperlink ref="N166" r:id="rId99" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{BA2B139C-9F2B-41CC-9DA3-95F2FB333D7B}"/>
+    <hyperlink ref="B166" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{E7D2C42D-53AF-4D05-B135-13E232E7E34A}"/>
+    <hyperlink ref="N165" r:id="rId101" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{1918C7D9-B7DE-4668-85DE-CC50F911127E}"/>
+    <hyperlink ref="B165" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{3C8260A7-FE2F-409F-9738-436C155A6481}"/>
+    <hyperlink ref="N164" r:id="rId103" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{380D65EC-5ADD-446C-A1C0-E245E1BBB84A}"/>
+    <hyperlink ref="B164" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{30ABCB1E-9029-4B02-A2EF-270995014733}"/>
+    <hyperlink ref="N163" r:id="rId105" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{748347D3-F46D-4303-B54B-83102311DE59}"/>
+    <hyperlink ref="B163" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{768C7018-79E2-4866-950F-A258B89D89D4}"/>
+    <hyperlink ref="N162" r:id="rId107" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{B668ADA3-BCE3-4A19-A2E1-A70D83C6278B}"/>
+    <hyperlink ref="B162" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{C4458A5B-3E6D-477C-A500-C451FDA7457F}"/>
+    <hyperlink ref="N161" r:id="rId109" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{DF8B88F3-AC99-4BCC-9C5D-4750F6BAB962}"/>
+    <hyperlink ref="B161" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{2A72BA74-A6B0-4AFB-8B4B-53EB401BE990}"/>
+    <hyperlink ref="N160" r:id="rId111" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{2ADB56C9-B893-4A08-87B3-54F5C5DC1F05}"/>
+    <hyperlink ref="B160" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{41530331-A5E9-40C9-A1D3-EFCCE901E605}"/>
+    <hyperlink ref="N159" r:id="rId113" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{8509207F-6593-402D-9542-7AEEF1846504}"/>
+    <hyperlink ref="B159" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{8C47430F-B02E-42C9-9A06-32B8232A07B9}"/>
+    <hyperlink ref="N158" r:id="rId115" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{0B0526EF-7AFA-4DDA-A8DA-C42F77D2E539}"/>
+    <hyperlink ref="B158" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{396C8C61-04E3-4E4F-B1EF-70E74DE07341}"/>
+    <hyperlink ref="N157" r:id="rId117" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{9A72656B-3841-46C4-AC27-2BE84E2AA2DC}"/>
+    <hyperlink ref="B157" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{24A93F29-CAD7-4BAB-836D-6B54916DFF56}"/>
+    <hyperlink ref="N156" r:id="rId119" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{987AE79E-430B-4F1E-8B7C-0123DAA9CBEC}"/>
+    <hyperlink ref="B156" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{D95E4E79-6342-401E-A262-75EC19428367}"/>
+    <hyperlink ref="B155" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{EF135917-ADF9-4869-8869-EC64E0B817B0}"/>
+    <hyperlink ref="N154" r:id="rId122" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{F8E456D4-9E4A-4EC1-9596-CE0D8BFBF244}"/>
+    <hyperlink ref="B154" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{0F55F53F-E4D5-4933-96B4-12C4D309A3C8}"/>
+    <hyperlink ref="N153" r:id="rId124" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{40AD18A0-890C-4811-A0E4-8CA59E05E847}"/>
+    <hyperlink ref="B153" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{85D9D4E9-038D-436B-962F-514CE33C9CF7}"/>
+    <hyperlink ref="N152" r:id="rId126" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{E5F7D963-4812-4F48-BEDA-0C462A0E3162}"/>
+    <hyperlink ref="B152" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{35323E66-DF28-4F74-891A-17CE40B51517}"/>
+    <hyperlink ref="N151" r:id="rId128" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{643B9D8D-3362-4FC0-832B-335A2F3C96BA}"/>
+    <hyperlink ref="B151" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{E60B5752-3357-4F9D-BCF8-C9AEE18C0C4A}"/>
+    <hyperlink ref="N150" r:id="rId130" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{1F644423-CE9B-4201-A6A4-C10966499923}"/>
+    <hyperlink ref="B150" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{33919AB1-F0C6-4026-8944-A65D6478EB5F}"/>
+    <hyperlink ref="N149" r:id="rId132" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{0574E50C-6E69-47E0-9977-A1EECA8AB5C3}"/>
+    <hyperlink ref="B149" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{2B1D6A0B-1FE3-4140-A988-370DAA7C666D}"/>
+    <hyperlink ref="N148" r:id="rId134" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{47A2EE42-2C91-4B62-AF51-A34BA33044CA}"/>
+    <hyperlink ref="B148" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{38F54190-BD5A-411A-9F0E-3D86AE27C3C9}"/>
+    <hyperlink ref="N147" r:id="rId136" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{29B20192-681F-4C3C-A743-A97AD8FE94B4}"/>
+    <hyperlink ref="B147" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{6AEFE7E8-8517-41A6-B6DF-3EACE46DF4B4}"/>
+    <hyperlink ref="N146" r:id="rId138" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{BBECB63F-3533-4938-8EA8-338FC0950597}"/>
+    <hyperlink ref="B146" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{273F8318-0E61-4210-9FAB-E5788960E06C}"/>
+    <hyperlink ref="N145" r:id="rId140" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{FEEF2112-2AEA-4194-B65F-E5C2038304EA}"/>
+    <hyperlink ref="B145" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{1775A236-EACA-4771-B560-D07C165B0882}"/>
+    <hyperlink ref="N144" r:id="rId142" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{BF3989F3-B10A-4D5F-8631-974763AD2D26}"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{7182BC0D-DB90-4B97-B5B9-DB55CBAE6AAF}"/>
+    <hyperlink ref="N143" r:id="rId144" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{6F5A9126-4695-4FA1-B2E3-FDC241CBC8DA}"/>
+    <hyperlink ref="B143" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{CB1E1707-6014-48D9-B529-6B2AFE42ADA1}"/>
+    <hyperlink ref="N142" r:id="rId146" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{CFA81B77-5694-4FAC-96D3-F04C8DCD6E8B}"/>
+    <hyperlink ref="B142" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{3BE126CC-6A6D-48C5-B87D-10925E9D9211}"/>
+    <hyperlink ref="N141" r:id="rId148" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{027FD458-5455-4F70-B881-03690069A397}"/>
+    <hyperlink ref="B141" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{373BCA05-7A9B-435E-B2BC-7B00BAFDE8A4}"/>
+    <hyperlink ref="N140" r:id="rId150" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{673EF250-8510-4B91-8A24-0F7DE87D64E3}"/>
+    <hyperlink ref="B140" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{F3979340-AA52-41D4-920F-9C4A594AED55}"/>
+    <hyperlink ref="N139" r:id="rId152" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{414C567E-F6B1-4321-89F0-C18BBF351646}"/>
+    <hyperlink ref="B139" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{04D2143A-403D-4E01-8B99-20E3DA6C48B7}"/>
+    <hyperlink ref="N138" r:id="rId154" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{9628A103-A5DA-43EF-B2E5-8531B6BB606A}"/>
+    <hyperlink ref="B138" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{D103116F-FBB9-4D0A-9682-0523598387ED}"/>
+    <hyperlink ref="N137" r:id="rId156" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{36031D1A-6F8D-432E-9607-BD45100E7631}"/>
+    <hyperlink ref="B137" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{5A246C32-AA5F-4C08-B731-F89AF5E17E3D}"/>
+    <hyperlink ref="N136" r:id="rId158" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{A16579A6-CC59-479D-B6B8-F947B9129F8A}"/>
+    <hyperlink ref="B136" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{DBDFC6B9-586A-4F1F-90AD-80FEADA359F3}"/>
+    <hyperlink ref="N135" r:id="rId160" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{D312CADB-4AAA-4D80-9FC1-950C8C4EEF9C}"/>
+    <hyperlink ref="B135" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{D7C342C5-DA58-40B0-A813-B314F1A1E9C6}"/>
+    <hyperlink ref="N134" r:id="rId162" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{4DD4C96D-080B-4FE2-8B45-85891147972E}"/>
+    <hyperlink ref="B134" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{35735C8C-C644-41E0-BF70-E1021F9C2B0E}"/>
+    <hyperlink ref="N133" r:id="rId164" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{D0F4B155-8694-478D-86B1-B7C9F549840A}"/>
+    <hyperlink ref="B133" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{1B9FF019-E245-4A59-BB56-AED59A3EB928}"/>
+    <hyperlink ref="N132" r:id="rId166" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{33AB2ED5-5E52-4417-97F4-21E8D99A028F}"/>
+    <hyperlink ref="B132" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{660A7480-6468-4EAF-A878-E896411B7DD3}"/>
+    <hyperlink ref="N131" r:id="rId168" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{ABEB44D7-0187-4743-B588-3ADBAE828ACB}"/>
+    <hyperlink ref="B131" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{7C337F5A-3ADE-43F4-93AB-B32903FACFC3}"/>
+    <hyperlink ref="N130" r:id="rId170" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{BA2E1E72-11C5-4C6D-8E2A-0D38AF658F78}"/>
+    <hyperlink ref="B130" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{454BAF5A-F209-40F1-9D06-71E08C9D34D6}"/>
+    <hyperlink ref="N129" r:id="rId172" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{4FAD7410-C4A3-487A-BB26-76947F6AFD24}"/>
+    <hyperlink ref="B129" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{F1212C7C-8C69-42D5-A273-AB9DC0DBE981}"/>
+    <hyperlink ref="N128" r:id="rId174" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{409CC11C-6255-4C79-BA53-B4B0AE46C64D}"/>
+    <hyperlink ref="B128" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{E0C4667D-1977-4654-8C79-B45AEF846986}"/>
+    <hyperlink ref="N127" r:id="rId176" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{951AC943-2622-4E72-B649-B2D346E8252F}"/>
+    <hyperlink ref="B127" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{2C719F58-955A-4CFA-AC8A-28474D71B6F1}"/>
+    <hyperlink ref="N126" r:id="rId178" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{907F3BD7-5EF9-4B58-B78E-908C3F33EB7A}"/>
+    <hyperlink ref="B126" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{FA29E4CE-F106-4F80-8DE0-010CE181BB4D}"/>
+    <hyperlink ref="N125" r:id="rId180" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{637F5D6D-53D9-450A-8D5B-36D84F9CA0AD}"/>
+    <hyperlink ref="B125" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{B25E1A3E-0DD1-45F6-BC6B-AD2EB915B8F1}"/>
+    <hyperlink ref="N124" r:id="rId182" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{B0892762-32FF-4D41-868B-2752BD569901}"/>
+    <hyperlink ref="B124" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{E6A4A074-21EF-44D1-AF6E-9D405CB2EA84}"/>
+    <hyperlink ref="N123" r:id="rId184" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{EFDC1CF5-FE59-443F-899B-11856935E1ED}"/>
+    <hyperlink ref="B123" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{845F21A5-7C88-4EF8-A340-C2EBF780F435}"/>
+    <hyperlink ref="N122" r:id="rId186" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{256C2F2D-049C-4C73-935D-651E362F402E}"/>
+    <hyperlink ref="B122" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{62305E4C-5AD8-496C-B2D0-F79BFE6BB137}"/>
+    <hyperlink ref="N121" r:id="rId188" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{10CC456F-3724-4BD6-AD5C-F213749CEAF5}"/>
+    <hyperlink ref="B121" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{8D691AB2-C0FC-4ACB-B04F-5AE59A6536AD}"/>
+    <hyperlink ref="N120" r:id="rId190" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{A6E4DAB9-791A-44ED-9AB5-9366F0451792}"/>
+    <hyperlink ref="B120" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{11C47F7C-5142-4046-9465-931993E4A43F}"/>
+    <hyperlink ref="N119" r:id="rId192" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{0F33681B-A7FA-4633-B8C3-CAA19B3F8F0A}"/>
+    <hyperlink ref="B119" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{D4B1A266-0107-4B3A-A933-B395125E01B4}"/>
+    <hyperlink ref="N118" r:id="rId194" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{7F62FC57-8C43-4F87-9DB8-E276EC18630E}"/>
+    <hyperlink ref="B118" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{1BF2D4BA-443B-45F8-98A1-E1383573E4BD}"/>
+    <hyperlink ref="N117" r:id="rId196" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{AFB72EDE-695E-4049-B4BF-1484FCD40B1C}"/>
+    <hyperlink ref="B117" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{238BED97-C6CA-46A3-A8D6-5973A7B41AF5}"/>
+    <hyperlink ref="N116" r:id="rId198" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{84227870-7891-4D9C-9A2A-2763E4CB1D9B}"/>
+    <hyperlink ref="B116" r:id="rId199" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{0EBBDF0C-2C32-4DBE-B0FA-3B1650D19FB0}"/>
+    <hyperlink ref="N115" r:id="rId200" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{FE8E140D-6902-4DCD-9105-AB30CB7036D8}"/>
+    <hyperlink ref="B115" r:id="rId201" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{C5389D8C-1E74-43F6-BA8D-952263BDEAE8}"/>
+    <hyperlink ref="N114" r:id="rId202" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{1EFD95F0-84A8-435E-A6F3-65A64CD8C5ED}"/>
+    <hyperlink ref="B114" r:id="rId203" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{10255245-7994-414D-9712-D8A3DBF80C24}"/>
+    <hyperlink ref="N113" r:id="rId204" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{A6300BA4-EC7C-4005-9DF9-98536B61939C}"/>
+    <hyperlink ref="B113" r:id="rId205" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{CF4D2CD8-38C6-437E-867A-A22F369B7576}"/>
+    <hyperlink ref="N112" r:id="rId206" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{AEC5B041-8938-426B-808B-F410A8FA9747}"/>
+    <hyperlink ref="B112" r:id="rId207" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{325AD017-F6C6-43BA-83E5-82A968B55420}"/>
+    <hyperlink ref="N111" r:id="rId208" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{7F9A86CE-6054-4464-B8B3-3757D0D87036}"/>
+    <hyperlink ref="B111" r:id="rId209" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{2520863E-160A-44C7-BF3C-227D73065DDE}"/>
+    <hyperlink ref="N110" r:id="rId210" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{1231FF74-017E-47A0-931E-35978A27694D}"/>
+    <hyperlink ref="B110" r:id="rId211" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{988867C9-13A2-4D15-9C3C-C61F0AF298B7}"/>
+    <hyperlink ref="N109" r:id="rId212" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{18EC3B84-DBD0-4DE4-AB8B-C603B0437649}"/>
+    <hyperlink ref="B109" r:id="rId213" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{4F402706-2D91-4FAC-9897-78A90847EF31}"/>
+    <hyperlink ref="N108" r:id="rId214" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{5C970830-4CB5-4458-BC2B-EC0EF20F8822}"/>
+    <hyperlink ref="B108" r:id="rId215" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{4E27B902-8D96-4FFF-98D0-6514507BB467}"/>
+    <hyperlink ref="N107" r:id="rId216" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{137D2DFA-79CF-4896-A8D6-93FB603126D7}"/>
+    <hyperlink ref="B107" r:id="rId217" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{3D4C5928-1E79-4C4E-9371-DD67AABBCC4F}"/>
+    <hyperlink ref="N106" r:id="rId218" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{1576F486-06FC-438C-A623-18E289225645}"/>
+    <hyperlink ref="B106" r:id="rId219" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{A70D7974-6244-4C8D-8645-690FC45AF157}"/>
+    <hyperlink ref="N105" r:id="rId220" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{27A40E16-F2D5-4B11-9B72-8B4C9C52A39F}"/>
+    <hyperlink ref="B105" r:id="rId221" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{B00F6A2D-9FAD-4983-97F1-D4E7AD8088A7}"/>
+    <hyperlink ref="N104" r:id="rId222" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{C8F49874-2A4B-4117-8D81-DBD118B0C517}"/>
+    <hyperlink ref="B104" r:id="rId223" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{8D3C2BA2-CFD3-414C-A37C-8942C81DE173}"/>
+    <hyperlink ref="N103" r:id="rId224" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{6A435994-6ADD-4762-A83B-F0C281598DB5}"/>
+    <hyperlink ref="B103" r:id="rId225" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{4138915F-27EF-4612-AE86-3AC4291E29EC}"/>
+    <hyperlink ref="N102" r:id="rId226" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{D9D9E8B5-26FA-4F35-944F-07E5789547EE}"/>
+    <hyperlink ref="B102" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{5FA47770-933E-4069-A7BC-D6CBD793F1F1}"/>
+    <hyperlink ref="N101" r:id="rId228" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{08A58DFB-9FD6-4B7D-A0AF-F41586A85230}"/>
+    <hyperlink ref="B101" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{76A38271-C817-4813-A6DA-F2637B64F6C3}"/>
+    <hyperlink ref="N100" r:id="rId230" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{528DE111-75DE-45E7-B187-FF7B4DFBEB01}"/>
+    <hyperlink ref="B100" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{DA124B0B-B412-40EB-9F52-B67A6237B5AF}"/>
+    <hyperlink ref="N99" r:id="rId232" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{FD0616C4-06A4-4EAC-8298-3BD5C60CEF4D}"/>
+    <hyperlink ref="B99" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{B7FCEA00-F90A-4439-9276-9339BAF3B907}"/>
+    <hyperlink ref="N98" r:id="rId234" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{BCBB5D61-42EC-4EDF-A8D8-0151221B5859}"/>
+    <hyperlink ref="B98" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{7690EFBF-3C89-42D1-851D-6726AE4ECD49}"/>
+    <hyperlink ref="N97" r:id="rId236" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{4299F2E2-F1E2-444A-A15B-D4B0C200959C}"/>
+    <hyperlink ref="B97" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{D2D972F3-C584-4EAB-89DF-0787BE6DF013}"/>
+    <hyperlink ref="N96" r:id="rId238" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{55BB7A31-5E35-4A9D-AB4C-E2B0A73BA900}"/>
+    <hyperlink ref="B96" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{C8184179-0DAC-4217-9879-B091BAB7BBD9}"/>
+    <hyperlink ref="N95" r:id="rId240" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{71EDBB4D-974A-45E4-B2E0-B9AA0B7CC27A}"/>
+    <hyperlink ref="B95" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{32E5C026-61E7-47C9-8613-23177DD6F0B8}"/>
+    <hyperlink ref="N94" r:id="rId242" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{4C54ABE8-8AE9-4204-B6EF-F4E009D59F2A}"/>
+    <hyperlink ref="B94" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{35748156-64B8-43F5-9DC2-DD0F72285D03}"/>
+    <hyperlink ref="N93" r:id="rId244" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{35E94F6E-1CFC-4B46-A5D0-30C357A06AA6}"/>
+    <hyperlink ref="B93" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{1657023F-2AA9-4114-AF1E-194271B6C88D}"/>
+    <hyperlink ref="N92" r:id="rId246" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{39ADCA4C-4615-4B26-B12C-6F680C50F03E}"/>
+    <hyperlink ref="B92" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{9686FBBE-CD29-4229-A646-5E0C25821CB7}"/>
+    <hyperlink ref="N91" r:id="rId248" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{13AD8E0E-5211-494E-86CC-7E8A8BBA6609}"/>
+    <hyperlink ref="B91" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{1424A5A1-0422-4D4D-AA3B-0C6FE31315A7}"/>
+    <hyperlink ref="N90" r:id="rId250" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{788FE9D3-F000-4476-996C-121AB26785F3}"/>
+    <hyperlink ref="B90" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{89F5DD74-1127-4859-812D-0A1D9352BE60}"/>
+    <hyperlink ref="N89" r:id="rId252" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{8D0ADD61-B767-4DB0-9C94-AA2C90ACDB10}"/>
+    <hyperlink ref="B89" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{4D7CE1D2-715D-4704-B118-E5AB1BFEDF17}"/>
+    <hyperlink ref="N88" r:id="rId254" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{56546A12-D801-4092-873F-79122BF3A578}"/>
+    <hyperlink ref="B88" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{9B5D4028-9CF3-4561-9D5B-0A4A23DF22C8}"/>
+    <hyperlink ref="N87" r:id="rId256" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{BA5AA484-AD4D-4A9D-965A-0922233DC2DD}"/>
+    <hyperlink ref="B87" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{CB7539CE-9FFF-410B-9808-FC4B710A8339}"/>
+    <hyperlink ref="N86" r:id="rId258" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{8A064C54-AC71-406E-A1DD-74EE97A8DD72}"/>
+    <hyperlink ref="B86" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{4E580621-E7A0-40F6-AB85-F85DAA153150}"/>
+    <hyperlink ref="N85" r:id="rId260" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{30DC574C-A552-414D-B45F-C7D639F7CF35}"/>
+    <hyperlink ref="B85" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{0F28A00E-7069-4463-B324-0679163380F4}"/>
+    <hyperlink ref="N84" r:id="rId262" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{97C04763-FD70-4420-90C3-DC093F392C62}"/>
+    <hyperlink ref="B84" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{F3BE6014-EB02-4EE9-991E-9E1137A004B2}"/>
+    <hyperlink ref="N83" r:id="rId264" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{1F19D158-3D93-4904-B149-A2E066EC224B}"/>
+    <hyperlink ref="B83" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{65444C63-BC56-4831-838A-71F3554CD486}"/>
+    <hyperlink ref="N82" r:id="rId266" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{3CB92BCD-FF72-40BA-9584-4D321ADF7DD8}"/>
+    <hyperlink ref="B82" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{0B80F637-E840-4803-8FE0-43727CDCF00C}"/>
+    <hyperlink ref="N81" r:id="rId268" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{A261D13A-1CD6-4A53-915A-2AFC233AFEC8}"/>
+    <hyperlink ref="B81" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{0C5ACA58-025E-4524-A432-8D395257029E}"/>
+    <hyperlink ref="N80" r:id="rId270" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{CCBDEA10-13C7-46E9-A38B-6BD0D2EFB891}"/>
+    <hyperlink ref="B80" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{8CA209A2-E8E3-400F-9608-8E028D7C4BE7}"/>
+    <hyperlink ref="N79" r:id="rId272" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{B36E3084-DCC8-4985-813F-865EDBD493AC}"/>
+    <hyperlink ref="B79" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{384207E7-81C5-47EA-8AA5-D769A7E2FA9B}"/>
+    <hyperlink ref="N78" r:id="rId274" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{7C1419E9-A89C-40CE-8A76-8C825D02A421}"/>
+    <hyperlink ref="B78" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{8391F82D-6BAA-4612-A049-087E449A90E7}"/>
+    <hyperlink ref="N77" r:id="rId276" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{6B19E11F-BECA-4D19-B0AD-D9AC954A32EE}"/>
+    <hyperlink ref="B77" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{F0B321F7-F500-4136-9E44-41126467B5B2}"/>
+    <hyperlink ref="N76" r:id="rId278" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{D687B42C-C7B8-4FC0-82B1-65F72E6BBCB2}"/>
+    <hyperlink ref="B76" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{0FFF37D0-03CB-41EC-9A40-B7CFCE688D68}"/>
+    <hyperlink ref="N75" r:id="rId280" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{F97F4FB9-CDB7-4BB8-B31A-D98AD6605BB1}"/>
+    <hyperlink ref="B75" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{F1660B96-C749-4434-8513-110583EE0B51}"/>
+    <hyperlink ref="N74" r:id="rId282" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{AA2CB47E-06E6-43D8-9314-80FA59816245}"/>
+    <hyperlink ref="B74" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{87F687B3-D887-4F55-9AC3-E3033EE7D606}"/>
+    <hyperlink ref="N73" r:id="rId284" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{68E9A20C-61E9-4CED-B77E-5DE2DF20F9FA}"/>
+    <hyperlink ref="B73" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{DDE060F8-B50D-424D-9213-D20F8BC47CE2}"/>
+    <hyperlink ref="N72" r:id="rId286" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{EE026EB5-8569-4D88-80ED-5053BDFCDEB8}"/>
+    <hyperlink ref="B72" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{37188467-4019-4CB5-B3A7-FC78052CE56F}"/>
+    <hyperlink ref="N71" r:id="rId288" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{4ED2D61F-CC5F-4B9B-AA29-CF61495932C0}"/>
+    <hyperlink ref="B71" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{4B3B0CD7-FC5A-4511-ABB8-E3E9014B0830}"/>
+    <hyperlink ref="N70" r:id="rId290" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{421AA997-D5AB-4655-98FA-BBFF1B3FBB2B}"/>
+    <hyperlink ref="B70" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{82902EF7-7202-471F-BEFA-2DB9C5534BBF}"/>
+    <hyperlink ref="N69" r:id="rId292" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{66CECD19-0CB7-484E-8978-7409EFA8281D}"/>
+    <hyperlink ref="B69" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{B8CCAD6B-0813-4C1A-B278-E723563FC02F}"/>
+    <hyperlink ref="N68" r:id="rId294" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{0CDAD004-EE77-482A-A4E0-EAF0BF810153}"/>
+    <hyperlink ref="B68" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{0E34A6E1-37DC-46F5-8CF3-D02F2FC8F3D3}"/>
+    <hyperlink ref="N67" r:id="rId296" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{FCF29BF6-0FCF-4728-9A01-9015F047A790}"/>
+    <hyperlink ref="B67" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{9E390725-1C3F-46F5-9DEA-8A7BAF38DC3C}"/>
+    <hyperlink ref="N66" r:id="rId298" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{8EB1272E-891D-46D5-9F3B-4A222838E3C5}"/>
+    <hyperlink ref="B66" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{E5C59AB1-1B79-4550-B94D-91CF9BA19FAE}"/>
+    <hyperlink ref="N65" r:id="rId300" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{1AF7E995-1B31-4DF5-8796-0408012519DD}"/>
+    <hyperlink ref="B65" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{E37C014B-8667-457C-BB62-E039FF426B96}"/>
+    <hyperlink ref="N64" r:id="rId302" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{3746D852-6507-41F4-9F49-0AE9095BD65F}"/>
+    <hyperlink ref="B64" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{19BEAFC7-C2B9-486C-AFF5-66E45A4168EB}"/>
+    <hyperlink ref="N63" r:id="rId304" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{72F52F98-40ED-45B6-B436-542E0CD11AE5}"/>
+    <hyperlink ref="B63" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{9239674F-642E-4B0C-A794-A3CAFEC6A471}"/>
+    <hyperlink ref="N62" r:id="rId306" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{F39A90B0-D97C-489E-A1EE-84DDC9036F7B}"/>
+    <hyperlink ref="B62" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{E8A490D4-AE6D-4112-9BD0-13CE36EE99A8}"/>
+    <hyperlink ref="N61" r:id="rId308" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{5566EE9B-EF9F-4DB3-B552-025F536D151B}"/>
+    <hyperlink ref="B61" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{663FFA70-C4BE-4D44-B5D9-BFF3DAA254F0}"/>
+    <hyperlink ref="N60" r:id="rId310" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{91626F88-2FC7-455C-AD56-F30C1DDA5D8E}"/>
+    <hyperlink ref="B60" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{6B76E002-0ECD-4C54-8053-682666ED64DE}"/>
+    <hyperlink ref="N59" r:id="rId312" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{11EB9050-E8FD-4516-BDB8-42ED4BA24630}"/>
+    <hyperlink ref="B59" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{E0B4C516-94C2-4C68-8CA2-A809F1758216}"/>
+    <hyperlink ref="N58" r:id="rId314" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{63582093-D625-4A04-AA43-FBDE8EAACDCF}"/>
+    <hyperlink ref="B58" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{ED47238F-78C5-4044-94FD-7D7ECE5F257A}"/>
+    <hyperlink ref="N57" r:id="rId316" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{A3A2047E-D151-4E98-A75A-2AD78CEAF87D}"/>
+    <hyperlink ref="B57" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{147EA6BA-80E8-40B5-B924-8981CA6582A3}"/>
+    <hyperlink ref="N56" r:id="rId318" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{EC3E24B3-EDD9-4D8C-9209-D50FD7C5072E}"/>
+    <hyperlink ref="B56" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{9A464884-4EAF-464D-9F70-0A1EA41BE8CF}"/>
+    <hyperlink ref="N55" r:id="rId320" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{B89C93DB-810A-4495-B860-6CAD3BE07224}"/>
+    <hyperlink ref="B55" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{DA38B8D6-F7E8-40F1-8853-B1CD9A9FDBEE}"/>
+    <hyperlink ref="N54" r:id="rId322" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{7B465A19-2623-40BE-9D82-EF7EBAE2F4AA}"/>
+    <hyperlink ref="B54" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{56FB00DC-2444-4B01-98AE-3BC4396572CC}"/>
+    <hyperlink ref="N53" r:id="rId324" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{5CE0F850-8D2B-473D-AB58-DEA4C471909C}"/>
+    <hyperlink ref="B53" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{82BC6876-05EF-48E7-A69C-2648BE96CD3A}"/>
+    <hyperlink ref="N52" r:id="rId326" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{B0D97457-84F7-46A5-95B9-0628A50767F1}"/>
+    <hyperlink ref="B52" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{C862171D-3A9D-4321-9661-76D7D45EFC95}"/>
+    <hyperlink ref="N51" r:id="rId328" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{A17AB054-3BA4-47CA-AB49-0544DAF761EE}"/>
+    <hyperlink ref="B51" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{C51E9A22-3F99-4F0D-82D7-52866477E085}"/>
+    <hyperlink ref="N50" r:id="rId330" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{7067EB1F-AC89-44E0-9C9D-2E82B5426E6F}"/>
+    <hyperlink ref="B50" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{77158B8F-0222-4D2A-A159-0A5C14B3C87C}"/>
+    <hyperlink ref="N49" r:id="rId332" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{D13DEC6B-3ACE-40B2-B36A-EF839602BF42}"/>
+    <hyperlink ref="B49" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{ABAC25C4-5BB1-42AD-8B70-8C889E20E6A8}"/>
+    <hyperlink ref="N48" r:id="rId334" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{EEFDCABF-2972-4B17-9FE6-767D282DD44F}"/>
+    <hyperlink ref="B48" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{54C0322A-9A61-457B-AAFE-EE97A130F140}"/>
+    <hyperlink ref="N47" r:id="rId336" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{B2893376-DBEF-4A5B-B2E2-148BA9FF3753}"/>
+    <hyperlink ref="B47" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{0EC7345E-02D0-40F7-8CF1-638AF05ADC6E}"/>
+    <hyperlink ref="N46" r:id="rId338" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{322A3EC8-428F-475A-ACF1-CFBACCFA9167}"/>
+    <hyperlink ref="B46" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{09CA8850-DABB-4C50-B127-28830C73650D}"/>
+    <hyperlink ref="B45" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{A90BDE5A-9C30-4217-8AF6-5DE430E28286}"/>
+    <hyperlink ref="N44" r:id="rId341" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{2183BCC3-E38A-423A-8C4F-4C6FFCF18794}"/>
+    <hyperlink ref="B44" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{D2394111-1541-4494-AD93-AE4A416DE963}"/>
+    <hyperlink ref="N43" r:id="rId343" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{129AF516-6402-4CFE-96B3-7CF1B17AF228}"/>
+    <hyperlink ref="B43" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{5ACA1869-0325-42D7-BDC7-5897BD45A2D7}"/>
+    <hyperlink ref="N42" r:id="rId345" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{D6B5EB1C-D560-4102-9256-CEBA43980D91}"/>
+    <hyperlink ref="B42" r:id="rId346" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{DF4DED68-D6C9-4E91-8C78-1DE2535CD423}"/>
+    <hyperlink ref="N41" r:id="rId347" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{FDB1C8AE-4D6A-431F-9E22-63DA66D5E16B}"/>
+    <hyperlink ref="B41" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{1771058B-4B52-4515-AE76-7FA73613A0D2}"/>
+    <hyperlink ref="N40" r:id="rId349" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{E06B64E5-5627-4D50-A3C5-88BE63717630}"/>
+    <hyperlink ref="B40" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{884606F9-1A1E-4267-8FD4-33080E6589D6}"/>
+    <hyperlink ref="N39" r:id="rId351" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{F5435D68-BCC4-4926-8FCB-A068E9B1886D}"/>
+    <hyperlink ref="B39" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{19362859-26BE-49F5-8D1B-181CF8769A12}"/>
+    <hyperlink ref="N38" r:id="rId353" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{D9BE9465-3563-40AA-B3B2-0FDCA8B43ED5}"/>
+    <hyperlink ref="B38" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{48427CB7-673B-4794-8ABC-E7FB55BA13B1}"/>
+    <hyperlink ref="N37" r:id="rId355" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{F0207172-D51D-4983-8E3C-0322440E7E8B}"/>
+    <hyperlink ref="B37" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{5B0EA857-2CEA-4563-BE62-6FB79BA52D8E}"/>
+    <hyperlink ref="N36" r:id="rId357" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{59C94B6A-45ED-448D-8148-C714A610DA84}"/>
+    <hyperlink ref="B36" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{38E0DC62-7155-4FA4-BA32-1DF071F783B1}"/>
+    <hyperlink ref="N35" r:id="rId359" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{F2646B52-7FA4-4FB6-BC4E-C2F70B271FA0}"/>
+    <hyperlink ref="B35" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{F085F3C0-4A07-4FE2-B543-395AB302122B}"/>
+    <hyperlink ref="N34" r:id="rId361" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{806CEC1E-0298-452C-929E-988E6C8B0D89}"/>
+    <hyperlink ref="B34" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{C8F6ACEA-D8B1-4BFE-91C5-5F4AC8EF0028}"/>
+    <hyperlink ref="N33" r:id="rId363" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{9D07AB15-04B0-416B-B3F4-905A8B98D298}"/>
+    <hyperlink ref="B33" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{803EDFDB-311D-4255-95AA-3564712EFB9B}"/>
+    <hyperlink ref="N32" r:id="rId365" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{AAAC7CFA-015D-44E7-BB48-7DEB1BFB0D01}"/>
+    <hyperlink ref="B32" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{CC89A8CA-9BA0-4921-8E9B-D879470A8786}"/>
+    <hyperlink ref="B31" r:id="rId367" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{6E75E4B1-7942-4119-A6AE-82A64D779229}"/>
+    <hyperlink ref="N30" r:id="rId368" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{74485170-626B-4CF5-A8FB-8B523B04EF30}"/>
+    <hyperlink ref="B30" r:id="rId369" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{AF4E0E44-17D4-425E-B6AF-2346388748E6}"/>
+    <hyperlink ref="N29" r:id="rId370" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{C6D119AE-C180-4982-A7A0-8E99C15EC688}"/>
+    <hyperlink ref="B29" r:id="rId371" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{3105B0BE-D58C-4761-B8FE-02F98BD8AABC}"/>
+    <hyperlink ref="N28" r:id="rId372" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{8F027B45-1D03-48B2-9F5F-877BBF7C3660}"/>
+    <hyperlink ref="B28" r:id="rId373" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{E3578D48-68FC-4487-80BC-7C45B54A9E86}"/>
+    <hyperlink ref="N27" r:id="rId374" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{6E6BFFFD-9712-4C06-8E4D-F6F852438DC4}"/>
+    <hyperlink ref="B27" r:id="rId375" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{A383144A-6E04-4369-AF44-B966C89A9303}"/>
+    <hyperlink ref="B26" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{90E4C9C2-A116-4CF6-80CA-B90735B8FB94}"/>
+    <hyperlink ref="N25" r:id="rId377" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{B0E4FE25-EEC5-4900-98C7-079A2C5EE1B9}"/>
+    <hyperlink ref="B25" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{99A1130A-EEB3-4A8C-A0DF-2213BE7EC73B}"/>
+    <hyperlink ref="N24" r:id="rId379" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{AE0AEC61-2317-4AA2-8BC1-6C733A9DC7A4}"/>
+    <hyperlink ref="B24" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{F130F81A-64D1-433F-B85C-2E9401ABB02E}"/>
+    <hyperlink ref="N23" r:id="rId381" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{90950F3D-B88A-442D-BF1F-9302DFD304FC}"/>
+    <hyperlink ref="B23" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{8264FEEA-EDC2-4F3A-8FBD-F61CDC84BA57}"/>
+    <hyperlink ref="N22" r:id="rId383" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{8083B894-8877-415C-983D-58ADFD2D371C}"/>
+    <hyperlink ref="B22" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{EFD97A40-D800-421C-AEDE-68F3543C7E06}"/>
+    <hyperlink ref="N21" r:id="rId385" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{5A76DE76-07EC-4222-9579-75310CF5DE00}"/>
+    <hyperlink ref="B21" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{AB7154DA-191F-4634-A721-E1F7C746F7EB}"/>
+    <hyperlink ref="N20" r:id="rId387" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{F4802F61-E5B6-4452-BB35-98C595CAADFA}"/>
+    <hyperlink ref="B20" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{CA085A47-C875-43F7-8C28-FB436FC37DBB}"/>
+    <hyperlink ref="N19" r:id="rId389" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{AF1369AB-E431-4D0B-8A81-86D21C5472B6}"/>
+    <hyperlink ref="B19" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{5E9EDCA4-5E75-4735-A72C-802F24C67D37}"/>
+    <hyperlink ref="N18" r:id="rId391" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{7F9CFE5E-827C-4816-BF3F-6C957E6F205C}"/>
+    <hyperlink ref="B18" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{8B59CD4F-A697-429A-82F8-BF7F6B2D3621}"/>
+    <hyperlink ref="N17" r:id="rId393" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{3200D008-E283-49F9-83A3-2043C5985384}"/>
+    <hyperlink ref="B17" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{3A13E666-9519-48FE-A251-A3F0E2482728}"/>
+    <hyperlink ref="N16" r:id="rId395" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{820960A4-1034-4342-B115-D766F01690D2}"/>
+    <hyperlink ref="B16" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{C01A48E4-3EDC-44FF-99F9-74CFC8D16B1E}"/>
+    <hyperlink ref="N15" r:id="rId397" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{F19FDE50-F545-45E9-A6D9-EF059AAEB9C5}"/>
+    <hyperlink ref="B15" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{F6C88C88-2C28-49D6-9D90-20D378F5CAAB}"/>
+    <hyperlink ref="N14" r:id="rId399" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{75789DC9-20AD-45C2-878E-46E95A2212AD}"/>
+    <hyperlink ref="B14" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{9708A351-5344-477B-8C77-991B6903EB30}"/>
+    <hyperlink ref="N13" r:id="rId401" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{4A467B6A-3146-46F7-BA69-E6F2862AAB4E}"/>
+    <hyperlink ref="B13" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{04E3CBDE-B5A7-4B5B-80F9-4059A958DF5A}"/>
+    <hyperlink ref="N12" r:id="rId403" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{F1122F52-A643-4CD3-8A03-CB190DA1ED93}"/>
+    <hyperlink ref="B12" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{77E6EEC8-21D6-4D17-98DB-EA63EA20B04B}"/>
+    <hyperlink ref="N11" r:id="rId405" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{7C72B466-4713-4F29-9F04-DB38E93B33AE}"/>
+    <hyperlink ref="B11" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{E8AF1F14-9351-4113-80D9-F5D37A78498D}"/>
+    <hyperlink ref="N10" r:id="rId407" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{7CFD8EDB-CEC1-455F-A951-BD69B5692186}"/>
+    <hyperlink ref="B10" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{674CC687-021B-4E9D-B7B0-3959BDBA8D71}"/>
+    <hyperlink ref="N9" r:id="rId409" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{22B1E06C-3D23-4894-82A3-7EBCA9C477E7}"/>
+    <hyperlink ref="B9" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{9F57B69F-047C-4425-8DFB-F45909431E7D}"/>
+    <hyperlink ref="N8" r:id="rId411" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{0E8150BB-EE55-4573-B4F9-4E2E363D1E7E}"/>
+    <hyperlink ref="B8" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{B731C924-5243-4433-B854-B745BF2499B8}"/>
+    <hyperlink ref="N7" r:id="rId413" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{7405C865-77A5-4AC3-80F1-6BFE51719A1E}"/>
+    <hyperlink ref="B7" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{57B1C2EA-4F23-441C-82A2-C2450C2360BE}"/>
+    <hyperlink ref="N6" r:id="rId415" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{C23BF050-B15E-48C4-9668-864A555AC08F}"/>
+    <hyperlink ref="B6" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{1D721105-DF2B-46B7-B7FB-62A31839F71C}"/>
+    <hyperlink ref="N5" r:id="rId417" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{758E0A8D-B0C5-43BB-A885-07BD20BCD59B}"/>
+    <hyperlink ref="B5" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{6217FA56-1EC8-44C4-B768-34C4A111B9FF}"/>
+    <hyperlink ref="N4" r:id="rId419" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{7FFCF3D1-BE25-48C8-9BE8-599704B1B3E8}"/>
+    <hyperlink ref="B4" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{712E9052-7617-42DD-8FF3-45C1A8A85A37}"/>
+    <hyperlink ref="N3" r:id="rId421" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{323A4DEF-049D-4C92-B337-1B95AB744314}"/>
+    <hyperlink ref="B3" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{21EE4966-DF95-4DF6-9C9D-ADEB03D455D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId423"/>
